--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>3.65</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I9" t="n">
         <v>2.64</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2320,7 +2320,7 @@
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
         <v>1.95</v>
       </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
         <v>2.36</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
         <v>2.08</v>
@@ -2974,10 +2974,10 @@
         <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
@@ -3376,13 +3376,13 @@
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H23" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.8</v>
+        <v>1.25</v>
       </c>
       <c r="G24" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
         <v>1.41</v>
       </c>
       <c r="I24" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I25" t="n">
         <v>2.76</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
         <v>3.65</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q25" t="n">
         <v>2.38</v>
@@ -3913,16 +3913,16 @@
         <v>1.25</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" t="n">
         <v>23</v>
       </c>
       <c r="J26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4315,19 +4315,19 @@
         <v>5.7</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="I29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
         <v>3.7</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G30" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>1.82</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="H31" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="H32" t="n">
         <v>2.92</v>
       </c>
       <c r="I32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>4.5</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4855,16 +4855,16 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
         <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.95</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G34" t="n">
         <v>1.46</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J34" t="n">
         <v>5.1</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.65</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H36" t="n">
-        <v>5.8</v>
+        <v>2.04</v>
       </c>
       <c r="I36" t="n">
-        <v>6.8</v>
+        <v>2.62</v>
       </c>
       <c r="J36" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="K36" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.41</v>
+        <v>2.42</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5362,276 +5362,6 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Vancouver Whitecaps</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Defensor Sporting</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,100 +679,100 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -814,106 +814,106 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Chinese League 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Foshan Nanshi FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>1.71</v>
+        <v>19.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Colon FC</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Central Espanol</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,48 +1328,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
@@ -1378,82 +1378,82 @@
         <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.46</v>
+        <v>1.53</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Racing Club (Uru)</t>
+          <t>Colon FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
         <v>1.01</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Central Espanol</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.58</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="I13" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>2.44</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>2.64</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>1.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Greenville Triumph SC</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Union Omaha</t>
+          <t>Racing Club (Uru)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
         <v>1.01</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cerro Largo FC</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>La Luz FC</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="H18" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="I18" t="n">
         <v>2.62</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="I21" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Cerro Largo FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Loudoun United FC</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Greenville Triumph SC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Union Omaha</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="G23" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="I23" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Uruguay Montevideo FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>La Luz FC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="G26" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>23</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.94</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Forward Madison FC</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chattanooga Red Wolves SC</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Loudoun United FC</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="I29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J29" t="n">
         <v>1.8</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>1.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>1.93</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>980</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hartford Athletic FC</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>1.23</v>
       </c>
       <c r="G31" t="n">
-        <v>2.64</v>
+        <v>1.27</v>
       </c>
       <c r="H31" t="n">
-        <v>2.84</v>
+        <v>19</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Forward Madison FC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>El Paso Locomotive FC</t>
+          <t>Chattanooga Red Wolves SC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="G32" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="G33" t="n">
-        <v>2.26</v>
+        <v>2.94</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>2.68</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>2.76</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Louisville FC</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="G34" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="H34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>1.65</v>
       </c>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>1.17</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,135 +5233,945 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K36" t="n">
+        <v>980</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Hartford Athletic FC</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Lexington SC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K38" t="n">
+        <v>980</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rhode Island FC</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G39" t="n">
+        <v>980</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K39" t="n">
+        <v>980</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Louisville FC</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>2025-10-11</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Defensor Sporting</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F42" t="n">
         <v>3.5</v>
       </c>
-      <c r="G36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="G42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.35</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,27 +653,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ishoj IF</t>
+          <t>Kitakyushu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Thisted</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
         <v>1.31</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,27 +788,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sollentuna FF</t>
+          <t>Tochigi UVA FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Assyriska FF</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chinese League 1</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong</t>
+          <t>Sollentuna FF</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Foshan Nanshi FC</t>
+          <t>Assyriska FF</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.34</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Chinese League 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,73 +1063,73 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Foshan Nanshi FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.18</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.06</v>
+        <v>3.55</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1357,7 +1357,7 @@
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,28 +1366,28 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="I8" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,34 +1501,34 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1603,109 +1603,109 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.24</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.02</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,16 +1714,16 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colon FC</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X10" t="n">
         <v>980</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Central Espanol</t>
+          <t>Colon FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.56</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Central Espanol</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H12" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="I14" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Racing Club (Uru)</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>1.76</v>
       </c>
       <c r="G18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.45</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>2.64</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="G20" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>1.21</v>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>1.32</v>
       </c>
       <c r="H21" t="n">
-        <v>1.95</v>
+        <v>18</v>
       </c>
       <c r="I21" t="n">
-        <v>2.06</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>8.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cerro Largo FC</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Greenville Triumph SC</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Union Omaha</t>
+          <t>Racing Club (Uru)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>La Luz FC</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I24" t="n">
         <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.91</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>2.64</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.94</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>2.42</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54</v>
+        <v>5.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.68</v>
+        <v>1.56</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,37 +4163,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Loudoun United FC</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>4.3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.3</v>
       </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Greenville Triumph SC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Union Omaha</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="G29" t="n">
         <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I29" t="n">
         <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Cerro Largo FC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="K30" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Uruguay Montevideo FC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>La Luz FC</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.23</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
-        <v>1.27</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
-        <v>19</v>
+        <v>2.26</v>
       </c>
       <c r="I31" t="n">
-        <v>23</v>
+        <v>2.62</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Forward Madison FC</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chattanooga Red Wolves SC</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="I32" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
         <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.74</v>
+        <v>1.9</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.76</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.57</v>
+        <v>2.92</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.46</v>
+        <v>1.36</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.32</v>
+        <v>3.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>2.42</v>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
+        <v>2.56</v>
       </c>
       <c r="J34" t="n">
-        <v>4.1</v>
+        <v>2.92</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="R34" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Loudoun United FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H35" t="n">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.17</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,36 +5243,36 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="H36" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,36 +5378,36 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hartford Athletic FC</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,36 +5513,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Forward Madison FC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>El Paso Locomotive FC</t>
+          <t>Chattanooga Red Wolves SC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H38" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="I38" t="n">
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="G39" t="n">
-        <v>980</v>
+        <v>2.94</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="I39" t="n">
-        <v>5.1</v>
+        <v>2.78</v>
       </c>
       <c r="J39" t="n">
-        <v>1.24</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.81</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,54 +5783,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="G40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H40" t="n">
+        <v>19</v>
+      </c>
+      <c r="I40" t="n">
+        <v>23</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.82</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.63</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,260 +5918,1205 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Louisville FC</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="G41" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H41" t="n">
-        <v>1.22</v>
+        <v>8.6</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="J41" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="K41" t="n">
         <v>6.4</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Club Atletico Tembetary</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Hartford Athletic FC</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Lexington SC</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Rhode Island FC</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Louisville FC</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>2025-10-11</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Defensor Sporting</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
+      <c r="F49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.31</v>
@@ -709,10 +709,10 @@
         <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,10 +844,10 @@
         <v>1.19</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>1.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J4" t="n">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -985,7 +985,7 @@
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G5" t="n">
         <v>1.34</v>
@@ -1084,19 +1084,19 @@
         <v>19.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
@@ -1105,25 +1105,25 @@
         <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="T5" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
         <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.85</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1243,10 +1243,10 @@
         <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1255,7 +1255,7 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
         <v>1.06</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q7" t="n">
         <v>1.29</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>2.68</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,13 +1510,13 @@
         <v>1.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1525,10 +1525,10 @@
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1624,19 +1624,19 @@
         <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O9" t="n">
         <v>1.43</v>
@@ -1645,22 +1645,22 @@
         <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
         <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
         <v>1.49</v>
@@ -1678,10 +1678,10 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>16.5</v>
@@ -1705,19 +1705,19 @@
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="G10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1771,34 +1771,34 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
         <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1807,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
@@ -1915,13 +1915,13 @@
         <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>1.15</v>
       </c>
       <c r="S11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1930,10 +1930,10 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.8</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
         <v>2.26</v>
@@ -2047,13 +2047,13 @@
         <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="S12" t="n">
         <v>1.05</v>
@@ -2065,64 +2065,64 @@
         <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,28 +2143,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
@@ -2176,22 +2176,22 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2200,10 +2200,10 @@
         <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2278,19 +2278,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
         <v>1.01</v>
@@ -2299,7 +2299,7 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -2314,19 +2314,19 @@
         <v>1.11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2413,34 +2413,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2452,73 +2452,73 @@
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S16" t="n">
         <v>3.25</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.73</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.31</v>
       </c>
       <c r="X16" t="n">
         <v>960</v>
@@ -2617,10 +2617,10 @@
         <v>960</v>
       </c>
       <c r="Z16" t="n">
-        <v>960</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>960</v>
@@ -2632,37 +2632,37 @@
         <v>960</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>32</v>
+        <v>960</v>
       </c>
       <c r="AG16" t="n">
         <v>960</v>
       </c>
       <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
         <v>25</v>
       </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>70</v>
-      </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.36</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.45</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
         <v>960</v>
       </c>
       <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
         <v>960</v>
       </c>
-      <c r="Z17" t="n">
-        <v>27</v>
-      </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>960</v>
       </c>
       <c r="AC17" t="n">
-        <v>960</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>960</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
         <v>960</v>
       </c>
       <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO17" t="n">
         <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.28</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
         <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="J19" t="n">
         <v>3.05</v>
@@ -2983,19 +2983,19 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R19" t="n">
         <v>1.17</v>
@@ -3007,31 +3007,31 @@
         <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
@@ -3040,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
         <v>960</v>
@@ -3055,19 +3055,19 @@
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM19" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3121,28 +3121,28 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="R20" t="n">
         <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
         <v>1.09</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="G21" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>870</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,34 +3256,34 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S21" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3379,40 +3379,40 @@
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
         <v>1.28</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
         <v>2.42</v>
@@ -3526,16 +3526,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="R23" t="n">
         <v>1.22</v>
@@ -3544,16 +3544,16 @@
         <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3640,19 +3640,19 @@
         <v>1.49</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>600</v>
       </c>
       <c r="H24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" t="n">
         <v>1.09</v>
       </c>
-      <c r="I24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K24" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,34 +3661,34 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3715,10 +3715,10 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3727,10 +3727,10 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>6.6</v>
+        <v>2.58</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>2.84</v>
+        <v>3.95</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="W25" t="n">
-        <v>2.34</v>
+        <v>1.42</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>1.68</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="H26" t="n">
-        <v>2.42</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.64</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>1.76</v>
+        <v>3.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V26" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="W26" t="n">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AF26" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="n">
-        <v>70</v>
+        <v>960</v>
       </c>
       <c r="AK26" t="n">
-        <v>48</v>
+        <v>960</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
@@ -4060,100 +4060,100 @@
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>1.87</v>
       </c>
       <c r="G28" t="n">
-        <v>4.8</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>2.12</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.24</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P28" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Greenville Triumph SC</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Union Omaha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>950</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -4447,118 +4447,118 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.35</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P30" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Greenville Triumph SC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>La Luz FC</t>
+          <t>Union Omaha</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="I31" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>950</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Uruguay Montevideo FC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>La Luz FC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
         <v>3.4</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="K33" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>2.92</v>
+        <v>1.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P34" t="n">
-        <v>1.54</v>
+        <v>2.94</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.68</v>
+        <v>1.35</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Loudoun United FC</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G35" t="n">
         <v>2.02</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G36" t="n">
         <v>3.95</v>
       </c>
-      <c r="G36" t="n">
-        <v>5.3</v>
-      </c>
       <c r="H36" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="I36" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Brazilian Serie C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Nautico PE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Brusque FC</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>1.42</v>
+        <v>4.8</v>
       </c>
       <c r="I37" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Brazilian Serie C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Forward Madison FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Chattanooga Red Wolves SC</t>
+          <t>Sao Bernardo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="G38" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H38" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="K38" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="I39" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="K39" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P39" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>SER Caxias do Sul</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Floresta EC</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="G40" t="n">
-        <v>1.27</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>23</v>
+        <v>5.6</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>2.72</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="G41" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="H41" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,94 +5956,94 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
         <v>1.3</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T41" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="V41" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="W41" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Loudoun United FC</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="G42" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="H42" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="I42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.8</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="G43" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hartford Athletic FC</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.64</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="J44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
         <v>2.96</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.89</v>
       </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>El Paso Locomotive FC</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="H45" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K45" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,36 +6593,36 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="G46" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J46" t="n">
         <v>3.25</v>
       </c>
-      <c r="I46" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K46" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,36 +6728,36 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="G47" t="n">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="I47" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="J47" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,36 +6863,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Louisville FC</t>
+          <t>Forward Madison FC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>Chattanooga Red Wolves SC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="G48" t="n">
-        <v>1.46</v>
+        <v>1000</v>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J48" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="K48" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6988,135 +6988,1350 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>19:10:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Leones FC</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>18</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Club Atletico Tembetary</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K52" t="n">
+        <v>980</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Hartford Athletic FC</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lexington SC</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K54" t="n">
+        <v>980</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Rhode Island FC</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Louisville FC</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K57" t="n">
+        <v>980</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>2025-10-11</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Defensor Sporting</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F58" t="n">
         <v>3.45</v>
       </c>
-      <c r="G49" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H58" t="n">
         <v>2.16</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I58" t="n">
         <v>2.44</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J58" t="n">
         <v>2.88</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K58" t="n">
         <v>3.3</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="n">
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.31</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
@@ -1075,55 +1075,55 @@
         <v>1.28</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.64</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.66</v>
       </c>
       <c r="V5" t="n">
         <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1168,13 +1168,13 @@
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1237,16 +1237,16 @@
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1366,19 +1366,19 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
         <v>1.29</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
         <v>2.56</v>
@@ -1489,34 +1489,34 @@
         <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1528,7 +1528,7 @@
         <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1618,106 +1618,106 @@
         <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
         <v>1.49</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,49 +1747,49 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G10" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I10" t="n">
         <v>1.57</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.35</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.37</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
         <v>1.79</v>
@@ -1798,16 +1798,16 @@
         <v>2.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
         <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.56</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1912,10 +1912,10 @@
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R11" t="n">
         <v>1.15</v>
@@ -1930,10 +1930,10 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>2.58</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
         <v>2.26</v>
@@ -2047,13 +2047,13 @@
         <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
         <v>1.05</v>
@@ -2065,64 +2065,64 @@
         <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2176,13 +2176,13 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.18</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.09</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
         <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
@@ -2305,7 +2305,7 @@
         <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2446,13 +2446,13 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.3</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
@@ -2602,7 +2602,7 @@
         <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
         <v>1.35</v>
@@ -2611,10 +2611,10 @@
         <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
         <v>27</v>
@@ -2623,22 +2623,22 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2719,25 +2719,25 @@
         <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
         <v>1.75</v>
@@ -2746,37 +2746,37 @@
         <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AB17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
@@ -2797,7 +2797,7 @@
         <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>1.71</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.29</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>1.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
         <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO18" t="n">
         <v>55</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
         <v>2.72</v>
@@ -2983,10 +2983,10 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
@@ -3004,61 +3004,61 @@
         <v>5.7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
         <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>960</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM19" t="n">
         <v>250</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3106,37 +3106,37 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
         <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="T20" t="n">
         <v>1.03</v>
@@ -3145,7 +3145,7 @@
         <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
         <v>2.26</v>
@@ -3247,31 +3247,31 @@
         <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
         <v>1.23</v>
       </c>
       <c r="S21" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
         <v>1.03</v>
@@ -3367,91 +3367,91 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>1.46</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
         <v>4.2</v>
@@ -3520,7 +3520,7 @@
         <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3538,7 +3538,7 @@
         <v>1.42</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="S23" t="n">
         <v>3.55</v>
@@ -3550,10 +3550,10 @@
         <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="G24" t="n">
-        <v>600</v>
+        <v>1.54</v>
       </c>
       <c r="H24" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,34 +3661,34 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="T24" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3715,10 +3715,10 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3727,10 +3727,10 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I25" t="n">
         <v>2.58</v>
@@ -3787,10 +3787,10 @@
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3802,10 +3802,10 @@
         <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
@@ -3817,43 +3817,43 @@
         <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X25" t="n">
         <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA25" t="n">
         <v>36</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -3865,7 +3865,7 @@
         <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
         <v>60</v>
@@ -3874,10 +3874,10 @@
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
@@ -3910,19 +3910,19 @@
         <v>1.68</v>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.36</v>
@@ -3931,7 +3931,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3940,49 +3940,49 @@
         <v>1.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W26" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
@@ -3991,25 +3991,25 @@
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G27" t="n">
         <v>1.9</v>
@@ -4051,7 +4051,7 @@
         <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
@@ -4066,7 +4066,7 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.18</v>
@@ -4075,7 +4075,7 @@
         <v>2.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R27" t="n">
         <v>1.59</v>
@@ -4090,70 +4090,70 @@
         <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X27" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y27" t="n">
         <v>28</v>
       </c>
-      <c r="Y27" t="n">
-        <v>23</v>
-      </c>
       <c r="Z27" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,36 +4163,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>610</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>870</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>950</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,28 +4201,28 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
         <v>1.01</v>
@@ -4231,34 +4231,34 @@
         <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4270,7 +4270,7 @@
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.4</v>
       </c>
-      <c r="G29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.1</v>
-      </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="O29" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AH29" t="n">
         <v>30</v>
       </c>
-      <c r="AF29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN29" t="n">
         <v>20</v>
       </c>
-      <c r="AH29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>130</v>
-      </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cerro Largo FC</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="J30" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>1.11</v>
+        <v>2.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.54</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Greenville Triumph SC</t>
+          <t>Cerro Largo FC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Union Omaha</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="K31" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="P31" t="n">
         <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>1.21</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
         <v>1.03</v>
@@ -4630,13 +4630,13 @@
         <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,27 +4703,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Greenville Triumph SC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>La Luz FC</t>
+          <t>Union Omaha</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G32" t="n">
         <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I32" t="n">
         <v>1000</v>
@@ -4732,7 +4732,7 @@
         <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,28 +4741,28 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="R32" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V32" t="n">
         <v>1.01</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Uruguay Montevideo FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>La Luz FC</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G33" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="I33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.4</v>
       </c>
-      <c r="J33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.6</v>
+        <v>1.51</v>
       </c>
       <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
         <v>1.51</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="S33" t="n">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>2.94</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="J34" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.12</v>
+        <v>1.54</v>
       </c>
       <c r="P34" t="n">
-        <v>2.94</v>
+        <v>1.54</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.35</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>1.45</v>
+        <v>5.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="W34" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H35" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>2.94</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.79</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>2.04</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="Y35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH35" t="n">
         <v>18</v>
       </c>
-      <c r="Z35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AI35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK35" t="n">
         <v>22</v>
       </c>
-      <c r="AE35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>27</v>
-      </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AN35" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO35" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.6</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>3.95</v>
+        <v>2.08</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.62</v>
+        <v>1.11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S36" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="T36" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="V36" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="W36" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X36" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF36" t="n">
+      <c r="AG36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>25</v>
       </c>
-      <c r="AG36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>90</v>
-      </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO36" t="n">
         <v>100</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brazilian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,126 +5378,126 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nautico PE</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brusque FC</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>3.65</v>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>3.85</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8</v>
+        <v>2.44</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P37" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="R37" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S37" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="W37" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Nautico PE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sao Bernardo</t>
+          <t>Brusque FC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="G38" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="H38" t="n">
-        <v>1.09</v>
+        <v>5.4</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>2.54</v>
       </c>
       <c r="R38" t="n">
         <v>1.17</v>
       </c>
       <c r="S38" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Sao Bernardo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="G39" t="n">
-        <v>3.15</v>
+        <v>2.16</v>
       </c>
       <c r="H39" t="n">
-        <v>2.82</v>
+        <v>4.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>2.14</v>
+        <v>1.44</v>
       </c>
       <c r="O39" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.52</v>
+        <v>1.02</v>
       </c>
       <c r="R39" t="n">
         <v>1.17</v>
       </c>
       <c r="S39" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="T39" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="W39" t="n">
-        <v>1.46</v>
+        <v>1.86</v>
       </c>
       <c r="X39" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SER Caxias do Sul</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Floresta EC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
         <v>2.72</v>
       </c>
       <c r="K40" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N40" t="n">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P40" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.74</v>
+        <v>2.52</v>
       </c>
       <c r="R40" t="n">
         <v>1.17</v>
       </c>
       <c r="S40" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V40" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="W40" t="n">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>SER Caxias do Sul</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Floresta EC</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>10.5</v>
+        <v>870</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="K41" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="O41" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="S41" t="n">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U41" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="V41" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W41" t="n">
-        <v>2.8</v>
+        <v>1.66</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Detroit City FC</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Loudoun United FC</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
         <v>1.84</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W42" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,72 +6188,72 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Detroit City FC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Loudoun United FC</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="G43" t="n">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.65</v>
+        <v>1.11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P43" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.87</v>
+        <v>1.32</v>
       </c>
       <c r="R43" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S43" t="n">
-        <v>1.87</v>
+        <v>3.05</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V43" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,67 +6328,67 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.1</v>
+        <v>1.56</v>
       </c>
       <c r="G44" t="n">
-        <v>5.5</v>
+        <v>1.99</v>
       </c>
       <c r="H44" t="n">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.96</v>
+        <v>1.64</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V44" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="W44" t="n">
-        <v>1.22</v>
+        <v>2.02</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="J45" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.26</v>
       </c>
-      <c r="S45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.08</v>
-      </c>
       <c r="X45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO45" t="n">
         <v>21</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="I46" t="n">
-        <v>2.78</v>
+        <v>980</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>3.3</v>
+        <v>980</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.58</v>
+        <v>1.89</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Forward Madison FC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Chattanooga Red Wolves SC</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="G47" t="n">
-        <v>1.27</v>
+        <v>1000</v>
       </c>
       <c r="H47" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="I47" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>1.02</v>
       </c>
       <c r="K47" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>2.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Forward Madison FC</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Chattanooga Red Wolves SC</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="I48" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="J48" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P48" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,123 +6998,123 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="G49" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="H49" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="I49" t="n">
+        <v>23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>480</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK49" t="n">
         <v>18</v>
       </c>
-      <c r="J49" t="n">
-        <v>4</v>
-      </c>
-      <c r="K49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AN49" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.81</v>
+        <v>1.33</v>
       </c>
       <c r="G50" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>5.8</v>
+        <v>18</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="K50" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P50" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.6</v>
+        <v>1.82</v>
       </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>2.02</v>
       </c>
       <c r="H51" t="n">
-        <v>1.66</v>
+        <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K51" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P51" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.09</v>
+        <v>5.6</v>
       </c>
       <c r="G52" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="53">
@@ -7543,121 +7543,121 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hartford Athletic FC</t>
+          <t>Pittsburgh Riverhounds</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="G53" t="n">
-        <v>2.64</v>
+        <v>2.04</v>
       </c>
       <c r="H53" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7678,121 +7678,121 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Rhode Island FC</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>El Paso Locomotive FC</t>
+          <t>Tampa Bay Rowdies</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="G54" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K54" t="n">
         <v>980</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P54" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.84</v>
+        <v>1.31</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7813,121 +7813,121 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>Hartford Athletic FC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="G55" t="n">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="I55" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P55" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V55" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7943,126 +7943,126 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Louisville FC</t>
+          <t>Lexington SC</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>El Paso Locomotive FC</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.4</v>
+        <v>2.16</v>
       </c>
       <c r="G56" t="n">
-        <v>1.46</v>
+        <v>2.82</v>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>2.68</v>
       </c>
       <c r="I56" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="K56" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P56" t="n">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8092,247 +8092,652 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="G57" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="H57" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P57" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Inter Miami CF</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Atlanta Utd</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X58" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X59" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Louisville FC</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W60" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>2025-10-11</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Defensor Sporting</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F61" t="n">
         <v>3.45</v>
       </c>
-      <c r="G58" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
+      <c r="G61" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W61" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
+      <c r="X61" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -670,49 +670,49 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
         <v>2.28</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.78</v>
@@ -721,10 +721,10 @@
         <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -829,25 +829,25 @@
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
@@ -862,7 +862,7 @@
         <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -898,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -940,58 +940,58 @@
         <v>2.56</v>
       </c>
       <c r="G4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.15</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1075,16 +1075,16 @@
         <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1114,16 +1114,16 @@
         <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
         <v>85</v>
@@ -1132,52 +1132,52 @@
         <v>50</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC5" t="n">
         <v>20</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="H6" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="I6" t="n">
         <v>2.16</v>
@@ -1225,46 +1225,46 @@
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1345,31 +1345,31 @@
         <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
         <v>2.18</v>
@@ -1378,22 +1378,22 @@
         <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
         <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>980</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1507,16 +1507,16 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
         <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
         <v>1.72</v>
@@ -1537,10 +1537,10 @@
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
@@ -1552,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1570,7 +1570,7 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1615,43 +1615,43 @@
         <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>1.11</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1660,10 +1660,10 @@
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1756,22 +1756,22 @@
         <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.19</v>
@@ -1783,19 +1783,19 @@
         <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
         <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
         <v>2.72</v>
@@ -1807,7 +1807,7 @@
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1822,19 +1822,19 @@
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1852,7 +1852,7 @@
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1888,25 +1888,25 @@
         <v>1.31</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="I11" t="n">
         <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
         <v>8.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
@@ -1918,22 +1918,22 @@
         <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
         <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
         <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1969,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.85</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.95</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2044,85 +2044,85 @@
         <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V12" t="n">
         <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="n">
         <v>55</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
         <v>290</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK12" t="n">
         <v>19</v>
       </c>
-      <c r="AE12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>22</v>
-      </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2164,7 +2164,7 @@
         <v>3.15</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
         <v>3.4</v>
@@ -2173,31 +2173,31 @@
         <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
         <v>1.46</v>
@@ -2206,58 +2206,58 @@
         <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
         <v>2.76</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>970</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.51</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>2.16</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
         <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
         <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.87</v>
@@ -2473,19 +2473,19 @@
         <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
         <v>9.4</v>
@@ -2497,7 +2497,7 @@
         <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>60</v>
@@ -2518,13 +2518,13 @@
         <v>120</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,43 +2560,43 @@
         <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="I16" t="n">
-        <v>870</v>
+        <v>2.58</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
         <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.03</v>
@@ -2605,10 +2605,10 @@
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2722,40 +2722,40 @@
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
         <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
@@ -2764,10 +2764,10 @@
         <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2857,28 +2857,28 @@
         <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q18" t="n">
         <v>1.4</v>
       </c>
       <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.81</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.99</v>
       </c>
       <c r="V18" t="n">
         <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
         <v>2.84</v>
       </c>
       <c r="I19" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="K19" t="n">
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
@@ -2989,34 +2989,34 @@
         <v>2.18</v>
       </c>
       <c r="O19" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="P19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="T19" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="V19" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y19" t="n">
         <v>8.4</v>
@@ -3025,37 +3025,37 @@
         <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH19" t="n">
         <v>65</v>
       </c>
-      <c r="AF19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>28</v>
-      </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G20" t="n">
         <v>3.65</v>
@@ -3109,7 +3109,7 @@
         <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.15</v>
@@ -3121,16 +3121,16 @@
         <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.61</v>
       </c>
       <c r="P20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="R20" t="n">
         <v>1.14</v>
@@ -3142,13 +3142,13 @@
         <v>2.2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>7.6</v>
@@ -3181,13 +3181,13 @@
         <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>960</v>
       </c>
       <c r="AJ20" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="n">
         <v>65</v>
@@ -3196,13 +3196,13 @@
         <v>540</v>
       </c>
       <c r="AM20" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN20" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3262,25 +3262,25 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
         <v>1.58</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
         <v>2.26</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
         <v>1.48</v>
@@ -3316,13 +3316,13 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3367,31 +3367,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G22" t="n">
         <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3409,19 +3409,19 @@
         <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
         <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3433,25 +3433,25 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF22" t="n">
         <v>29</v>
       </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16</v>
-      </c>
       <c r="AG22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH22" t="n">
         <v>980</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>60</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3502,82 +3502,82 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G23" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="I23" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>1.11</v>
+        <v>3.85</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.03</v>
-      </c>
       <c r="V23" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="W23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
         <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3640,22 +3640,22 @@
         <v>5.1</v>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
         <v>1.55</v>
       </c>
       <c r="I24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3664,19 +3664,19 @@
         <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>
@@ -3685,64 +3685,64 @@
         <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X24" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>16</v>
       </c>
-      <c r="AA24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
+        <v>230</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH24" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>27</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>32</v>
       </c>
       <c r="AJ24" t="n">
         <v>150</v>
       </c>
       <c r="AK24" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="25">
@@ -3772,109 +3772,109 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>5.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
         <v>1.65</v>
       </c>
       <c r="S25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T25" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="X25" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z25" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AA25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI25" t="n">
         <v>190</v>
       </c>
-      <c r="AB25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>300</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>120</v>
@@ -3907,94 +3907,94 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="I26" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>2.04</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="S26" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4006,13 +4006,13 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
         <v>980</v>
@@ -4111,7 +4111,7 @@
         <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>980</v>
@@ -4126,7 +4126,7 @@
         <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="G28" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>2.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="W28" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="X28" t="n">
         <v>980</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,46 +4312,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>1.58</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="T29" t="n">
         <v>1.03</v>
@@ -4360,10 +4360,10 @@
         <v>1.03</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -4447,61 +4447,61 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
         <v>2.44</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
         <v>1.42</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
         <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V30" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
         <v>1.7</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
         <v>980</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
         <v>980</v>
@@ -4525,7 +4525,7 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
         <v>980</v>
@@ -4591,10 +4591,10 @@
         <v>2.16</v>
       </c>
       <c r="I31" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
         <v>3.55</v>
@@ -4603,34 +4603,34 @@
         <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
         <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q31" t="n">
         <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W31" t="n">
         <v>1.33</v>
@@ -4642,7 +4642,7 @@
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA31" t="n">
         <v>980</v>
@@ -4651,13 +4651,13 @@
         <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
         <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
         <v>980</v>
@@ -4666,28 +4666,28 @@
         <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AJ31" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
         <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
         <v>3.7</v>
@@ -4744,7 +4744,7 @@
         <v>3.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P32" t="n">
         <v>1.82</v>
@@ -4753,13 +4753,13 @@
         <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U32" t="n">
         <v>2.06</v>
@@ -4768,7 +4768,7 @@
         <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
         <v>15.5</v>
@@ -4777,16 +4777,16 @@
         <v>15</v>
       </c>
       <c r="Z32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
         <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>18</v>
@@ -4801,7 +4801,7 @@
         <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
         <v>130</v>
@@ -4819,10 +4819,10 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -4852,100 +4852,100 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="I33" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>1.11</v>
+        <v>5.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.54</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V33" t="n">
         <v>2.06</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ33" t="n">
         <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,10 +4954,10 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="34">
@@ -4987,58 +4987,58 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="G34" t="n">
         <v>1.84</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>500</v>
+        <v>5.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.11</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="R34" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="S34" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="T34" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U34" t="n">
-        <v>1.03</v>
+        <v>2.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5059,7 +5059,7 @@
         <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,10 +5068,10 @@
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="G35" t="n">
         <v>1.74</v>
       </c>
       <c r="H35" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
         <v>1.37</v>
@@ -5158,76 +5158,76 @@
         <v>1.81</v>
       </c>
       <c r="R35" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W35" t="n">
         <v>2.34</v>
       </c>
       <c r="X35" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -5257,25 +5257,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H36" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>3.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M36" t="n">
         <v>1.14</v>
@@ -5284,82 +5284,82 @@
         <v>2.52</v>
       </c>
       <c r="O36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P36" t="n">
         <v>1.51</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W36" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y36" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
         <v>7</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE36" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF36" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>75</v>
       </c>
       <c r="AJ36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK36" t="n">
         <v>60</v>
       </c>
-      <c r="AK36" t="n">
-        <v>50</v>
-      </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM36" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5392,109 +5392,109 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.62</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.68</v>
-      </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V37" t="n">
         <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="X37" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD37" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5533,13 +5533,13 @@
         <v>2.34</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I38" t="n">
         <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
         <v>3.55</v>
@@ -5563,13 +5563,13 @@
         <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
         <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
         <v>1.91</v>
@@ -5578,7 +5578,7 @@
         <v>1.32</v>
       </c>
       <c r="W38" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X38" t="n">
         <v>13.5</v>
@@ -5590,10 +5590,10 @@
         <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC38" t="n">
         <v>9</v>
@@ -5605,7 +5605,7 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG38" t="n">
         <v>12</v>
@@ -5614,13 +5614,13 @@
         <v>22</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ38" t="n">
         <v>38</v>
       </c>
       <c r="AK38" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
         <v>60</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5674,7 +5674,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K39" t="n">
         <v>1000</v>
@@ -5803,13 +5803,13 @@
         <v>2.96</v>
       </c>
       <c r="H40" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I40" t="n">
         <v>3.65</v>
       </c>
       <c r="J40" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K40" t="n">
         <v>3.55</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5851,7 +5851,7 @@
         <v>1.51</v>
       </c>
       <c r="X40" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5935,16 +5935,16 @@
         <v>1.94</v>
       </c>
       <c r="G41" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I41" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="J41" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K41" t="n">
         <v>3.65</v>
@@ -5965,13 +5965,13 @@
         <v>1.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
         <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>1.03</v>
@@ -5983,7 +5983,7 @@
         <v>1.21</v>
       </c>
       <c r="W41" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6001,7 +6001,7 @@
         <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6070,46 +6070,46 @@
         <v>1.31</v>
       </c>
       <c r="G42" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I42" t="n">
         <v>17</v>
       </c>
       <c r="J42" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K42" t="n">
         <v>6.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R42" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T42" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="U42" t="n">
         <v>1.55</v>
@@ -6118,46 +6118,46 @@
         <v>1.06</v>
       </c>
       <c r="W42" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y42" t="n">
         <v>36</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF42" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>7.2</v>
       </c>
       <c r="AG42" t="n">
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK42" t="n">
         <v>18</v>
@@ -6166,13 +6166,13 @@
         <v>70</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN42" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G43" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.45</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L43" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="n">
         <v>1.15</v>
       </c>
       <c r="N43" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O43" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P43" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q43" t="n">
         <v>2.88</v>
@@ -6244,13 +6244,13 @@
         <v>6.2</v>
       </c>
       <c r="T43" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W43" t="n">
         <v>1.59</v>
@@ -6274,10 +6274,10 @@
         <v>8.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AF43" t="n">
         <v>15</v>
@@ -6286,19 +6286,19 @@
         <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G44" t="n">
         <v>1.52</v>
@@ -6352,7 +6352,7 @@
         <v>4.6</v>
       </c>
       <c r="K44" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.25</v>
@@ -6373,7 +6373,7 @@
         <v>1.55</v>
       </c>
       <c r="R44" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S44" t="n">
         <v>2.38</v>
@@ -6406,7 +6406,7 @@
         <v>980</v>
       </c>
       <c r="AC44" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6418,7 +6418,7 @@
         <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH44" t="n">
         <v>1000</v>
@@ -6427,10 +6427,10 @@
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK44" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL44" t="n">
         <v>1000</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G45" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J45" t="n">
         <v>4</v>
@@ -6496,34 +6496,34 @@
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O45" t="n">
         <v>1.31</v>
       </c>
       <c r="P45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
         <v>1.91</v>
       </c>
       <c r="R45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S45" t="n">
         <v>3.35</v>
       </c>
       <c r="T45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X45" t="n">
         <v>15</v>
@@ -6547,7 +6547,7 @@
         <v>22</v>
       </c>
       <c r="AE45" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="n">
         <v>10.5</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>3.1</v>
@@ -6616,13 +6616,13 @@
         <v>2.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J46" t="n">
         <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.45</v>
@@ -6634,10 +6634,10 @@
         <v>3.55</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q46" t="n">
         <v>2.08</v>
@@ -6655,25 +6655,25 @@
         <v>2.18</v>
       </c>
       <c r="V46" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W46" t="n">
         <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC46" t="n">
         <v>7.4</v>
@@ -6682,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF46" t="n">
         <v>25</v>
@@ -6691,7 +6691,7 @@
         <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI46" t="n">
         <v>46</v>
@@ -6700,7 +6700,7 @@
         <v>55</v>
       </c>
       <c r="AK46" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL46" t="n">
         <v>50</v>
@@ -6712,7 +6712,7 @@
         <v>36</v>
       </c>
       <c r="AO46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -6745,10 +6745,10 @@
         <v>1.82</v>
       </c>
       <c r="G47" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
         <v>4.6</v>
@@ -6787,7 +6787,7 @@
         <v>1.6</v>
       </c>
       <c r="U47" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V47" t="n">
         <v>1.28</v>
@@ -6799,16 +6799,16 @@
         <v>29</v>
       </c>
       <c r="Y47" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA47" t="n">
         <v>100</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
         <v>10.5</v>
@@ -6820,7 +6820,7 @@
         <v>55</v>
       </c>
       <c r="AF47" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
@@ -6832,19 +6832,19 @@
         <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL47" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO47" t="n">
         <v>40</v>
@@ -6880,19 +6880,19 @@
         <v>1.54</v>
       </c>
       <c r="G48" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="H48" t="n">
         <v>1.09</v>
       </c>
       <c r="I48" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J48" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6928,7 +6928,7 @@
         <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7012,109 +7012,109 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G49" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H49" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I49" t="n">
         <v>6.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="O49" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="P49" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S49" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="U49" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V49" t="n">
         <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="X49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z49" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI49" t="n">
         <v>130</v>
       </c>
       <c r="AJ49" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G50" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="H50" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="I50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K50" t="n">
         <v>4.1</v>
@@ -7171,67 +7171,67 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="R50" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S50" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T50" t="n">
         <v>1.62</v>
       </c>
       <c r="U50" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V50" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X50" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA50" t="n">
         <v>55</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD50" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG50" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI50" t="n">
         <v>46</v>
@@ -7243,13 +7243,13 @@
         <v>30</v>
       </c>
       <c r="AL50" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AO50" t="n">
         <v>28</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G51" t="n">
         <v>3.1</v>
@@ -7300,13 +7300,13 @@
         <v>3.25</v>
       </c>
       <c r="L51" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O51" t="n">
         <v>1.54</v>
@@ -7321,10 +7321,10 @@
         <v>1.19</v>
       </c>
       <c r="S51" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T51" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
         <v>1.78</v>
@@ -7345,7 +7345,7 @@
         <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB51" t="n">
         <v>11</v>
@@ -7357,7 +7357,7 @@
         <v>16</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF51" t="n">
         <v>21</v>
@@ -7366,19 +7366,19 @@
         <v>17.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK51" t="n">
         <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G52" t="n">
         <v>5.4</v>
       </c>
       <c r="H52" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I52" t="n">
         <v>2.24</v>
       </c>
       <c r="J52" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
         <v>3.55</v>
@@ -7441,37 +7441,37 @@
         <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P52" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q52" t="n">
         <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S52" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T52" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U52" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V52" t="n">
         <v>1.8</v>
       </c>
       <c r="W52" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X52" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y52" t="n">
         <v>7.2</v>
@@ -7501,7 +7501,7 @@
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
@@ -7510,10 +7510,10 @@
         <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
@@ -7522,7 +7522,7 @@
         <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>2.5</v>
@@ -7564,10 +7564,10 @@
         <v>2.52</v>
       </c>
       <c r="J53" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>1.63</v>
@@ -7585,7 +7585,7 @@
         <v>1.49</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
         <v>1.17</v>
@@ -7603,7 +7603,7 @@
         <v>1.66</v>
       </c>
       <c r="W53" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X53" t="n">
         <v>7.6</v>
@@ -7624,7 +7624,7 @@
         <v>7.2</v>
       </c>
       <c r="AD53" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE53" t="n">
         <v>38</v>
@@ -7633,10 +7633,10 @@
         <v>25</v>
       </c>
       <c r="AG53" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH53" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI53" t="n">
         <v>75</v>
@@ -7648,7 +7648,7 @@
         <v>65</v>
       </c>
       <c r="AL53" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM53" t="n">
         <v>230</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G54" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H54" t="n">
         <v>3.05</v>
@@ -7711,10 +7711,10 @@
         <v>1.12</v>
       </c>
       <c r="N54" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O54" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P54" t="n">
         <v>1.56</v>
@@ -7741,7 +7741,7 @@
         <v>1.52</v>
       </c>
       <c r="X54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y54" t="n">
         <v>10.5</v>
@@ -7750,7 +7750,7 @@
         <v>23</v>
       </c>
       <c r="AA54" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB54" t="n">
         <v>9.199999999999999</v>
@@ -7762,13 +7762,13 @@
         <v>16.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF54" t="n">
         <v>19.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH54" t="n">
         <v>25</v>
@@ -7789,7 +7789,7 @@
         <v>200</v>
       </c>
       <c r="AN54" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO54" t="n">
         <v>60</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I55" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K55" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L55" t="n">
         <v>1.2</v>
@@ -7855,7 +7855,7 @@
         <v>3.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="R55" t="n">
         <v>1.9</v>
@@ -7912,7 +7912,7 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK55" t="n">
         <v>1000</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G56" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H56" t="n">
         <v>4.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J56" t="n">
         <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.47</v>
@@ -7987,10 +7987,10 @@
         <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R56" t="n">
         <v>1.26</v>
@@ -8029,10 +8029,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF56" t="n">
         <v>11.5</v>
@@ -8041,7 +8041,7 @@
         <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
         <v>100</v>
@@ -8092,112 +8092,112 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="G57" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="H57" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K57" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M57" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="O57" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="P57" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="R57" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U57" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="V57" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="W57" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="X57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>510</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC57" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y57" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>11</v>
-      </c>
       <c r="AD57" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE57" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AF57" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
         <v>980</v>
       </c>
       <c r="AI57" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="AJ57" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM57" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AN57" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AO57" t="n">
-        <v>390</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58">
@@ -8227,64 +8227,64 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I58" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="J58" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L58" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N58" t="n">
-        <v>1.44</v>
+        <v>2.26</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="P58" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="R58" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S58" t="n">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="T58" t="n">
-        <v>1.03</v>
+        <v>2.32</v>
       </c>
       <c r="U58" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="V58" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W58" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z58" t="n">
         <v>1000</v>
@@ -8293,10 +8293,10 @@
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD58" t="n">
         <v>1000</v>
@@ -8305,7 +8305,7 @@
         <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG58" t="n">
         <v>1000</v>
@@ -8362,40 +8362,40 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="G59" t="n">
-        <v>2.94</v>
+        <v>2.42</v>
       </c>
       <c r="H59" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L59" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="M59" t="n">
         <v>1.13</v>
       </c>
       <c r="N59" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O59" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P59" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R59" t="n">
         <v>1.17</v>
@@ -8404,55 +8404,55 @@
         <v>5.7</v>
       </c>
       <c r="T59" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U59" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W59" t="n">
         <v>1.7</v>
       </c>
-      <c r="V59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X59" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y59" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z59" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AA59" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE59" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG59" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI59" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AJ59" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AK59" t="n">
         <v>980</v>
@@ -8461,13 +8461,13 @@
         <v>80</v>
       </c>
       <c r="AM59" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AN59" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AO59" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -8497,100 +8497,100 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="G60" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="H60" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="I60" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L60" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="M60" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N60" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P60" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="R60" t="n">
         <v>1.17</v>
       </c>
       <c r="S60" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T60" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V60" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="W60" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="X60" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y60" t="n">
         <v>14</v>
       </c>
       <c r="Z60" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AA60" t="n">
         <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE60" t="n">
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG60" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI60" t="n">
         <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK60" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL60" t="n">
         <v>1000</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.43</v>
       </c>
-      <c r="G61" t="n">
-        <v>1.45</v>
-      </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I61" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K61" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8665,7 +8665,7 @@
         <v>1.85</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="R61" t="n">
         <v>1.32</v>
@@ -8674,16 +8674,16 @@
         <v>3.65</v>
       </c>
       <c r="T61" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U61" t="n">
         <v>1.66</v>
       </c>
       <c r="V61" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X61" t="n">
         <v>16</v>
@@ -8695,7 +8695,7 @@
         <v>110</v>
       </c>
       <c r="AA61" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
         <v>6.6</v>
@@ -8731,10 +8731,10 @@
         <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="AN61" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO61" t="n">
         <v>480</v>
@@ -8770,19 +8770,19 @@
         <v>2.28</v>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H62" t="n">
         <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J62" t="n">
         <v>3.25</v>
       </c>
       <c r="K62" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L62" t="n">
         <v>1.36</v>
@@ -8800,7 +8800,7 @@
         <v>1.82</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="R62" t="n">
         <v>1.31</v>
@@ -8815,16 +8815,16 @@
         <v>2.04</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X62" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y62" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z62" t="n">
         <v>1000</v>
@@ -8851,7 +8851,7 @@
         <v>13</v>
       </c>
       <c r="AH62" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI62" t="n">
         <v>1000</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="G63" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H63" t="n">
         <v>4.3</v>
       </c>
       <c r="I63" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="L63" t="n">
         <v>1.35</v>
@@ -8926,7 +8926,7 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>1.11</v>
+        <v>1.66</v>
       </c>
       <c r="O63" t="n">
         <v>1.01</v>
@@ -8935,13 +8935,13 @@
         <v>1.66</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="R63" t="n">
         <v>1.22</v>
       </c>
       <c r="S63" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T63" t="n">
         <v>1.04</v>
@@ -8950,10 +8950,10 @@
         <v>1.03</v>
       </c>
       <c r="V63" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="W63" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9040,7 +9040,7 @@
         <v>4.1</v>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H64" t="n">
         <v>1.96</v>
@@ -9049,7 +9049,7 @@
         <v>2.14</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K64" t="n">
         <v>3.75</v>
@@ -9076,7 +9076,7 @@
         <v>1.28</v>
       </c>
       <c r="S64" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T64" t="n">
         <v>1.87</v>
@@ -9085,10 +9085,10 @@
         <v>1.9</v>
       </c>
       <c r="V64" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W64" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X64" t="n">
         <v>14.5</v>
@@ -9103,7 +9103,7 @@
         <v>29</v>
       </c>
       <c r="AB64" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC64" t="n">
         <v>9.6</v>
@@ -9112,7 +9112,7 @@
         <v>11.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF64" t="n">
         <v>38</v>
@@ -9121,7 +9121,7 @@
         <v>22</v>
       </c>
       <c r="AH64" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI64" t="n">
         <v>55</v>
@@ -9142,7 +9142,7 @@
         <v>95</v>
       </c>
       <c r="AO64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G65" t="n">
         <v>3.25</v>
       </c>
       <c r="H65" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I65" t="n">
         <v>2.74</v>
@@ -9244,10 +9244,10 @@
         <v>7.2</v>
       </c>
       <c r="AD65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF65" t="n">
         <v>19</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="G66" t="n">
         <v>13</v>
@@ -9316,7 +9316,7 @@
         <v>1.42</v>
       </c>
       <c r="I66" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J66" t="n">
         <v>4.4</v>
@@ -9331,16 +9331,16 @@
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O66" t="n">
         <v>1.34</v>
       </c>
       <c r="P66" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R66" t="n">
         <v>1.32</v>
@@ -9352,10 +9352,10 @@
         <v>2.24</v>
       </c>
       <c r="U66" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V66" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W66" t="n">
         <v>1.1</v>
@@ -9364,13 +9364,13 @@
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AA66" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB66" t="n">
         <v>1000</v>
@@ -9412,7 +9412,7 @@
         <v>1000</v>
       </c>
       <c r="AO66" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67">
@@ -9442,58 +9442,58 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="G67" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H67" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="K67" t="n">
         <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O67" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="R67" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S67" t="n">
-        <v>1.96</v>
+        <v>3.65</v>
       </c>
       <c r="T67" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U67" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W67" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G68" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H68" t="n">
         <v>16.5</v>
       </c>
       <c r="I68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K68" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L68" t="n">
         <v>1.37</v>
@@ -9601,28 +9601,28 @@
         <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
       </c>
       <c r="P68" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R68" t="n">
         <v>1.41</v>
       </c>
       <c r="S68" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T68" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U68" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V68" t="n">
         <v>1.05</v>
@@ -9643,7 +9643,7 @@
         <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC68" t="n">
         <v>15</v>
@@ -9652,10 +9652,10 @@
         <v>75</v>
       </c>
       <c r="AE68" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="AF68" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG68" t="n">
         <v>12.5</v>
@@ -9667,7 +9667,7 @@
         <v>370</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK68" t="n">
         <v>16.5</v>
@@ -9676,13 +9676,13 @@
         <v>65</v>
       </c>
       <c r="AM68" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AN68" t="n">
         <v>5.4</v>
       </c>
       <c r="AO68" t="n">
-        <v>930</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69">
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="G69" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="H69" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="K69" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9736,7 +9736,7 @@
         <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O69" t="n">
         <v>1.25</v>
@@ -9760,10 +9760,10 @@
         <v>1.03</v>
       </c>
       <c r="V69" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W69" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="G70" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="H70" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I70" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K70" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L70" t="n">
         <v>1.34</v>
@@ -9877,7 +9877,7 @@
         <v>1.32</v>
       </c>
       <c r="P70" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q70" t="n">
         <v>1.83</v>
@@ -9892,13 +9892,13 @@
         <v>1.83</v>
       </c>
       <c r="U70" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V70" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W70" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -10006,19 +10006,19 @@
         <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q71" t="n">
         <v>2.06</v>
       </c>
       <c r="R71" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S71" t="n">
         <v>3.75</v>
@@ -10042,7 +10042,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA71" t="n">
         <v>21</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G72" t="n">
         <v>1.82</v>
       </c>
       <c r="H72" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
         <v>7</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K72" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10150,25 +10150,25 @@
         <v>1.82</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R72" t="n">
         <v>1.31</v>
       </c>
       <c r="S72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T72" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U72" t="n">
         <v>1.9</v>
       </c>
       <c r="V72" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W72" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G73" t="n">
         <v>2.14</v>
       </c>
       <c r="H73" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I73" t="n">
         <v>4.5</v>
       </c>
       <c r="J73" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K73" t="n">
         <v>4</v>
@@ -10276,25 +10276,25 @@
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O73" t="n">
         <v>1.32</v>
       </c>
       <c r="P73" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R73" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S73" t="n">
         <v>3.35</v>
       </c>
       <c r="T73" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U73" t="n">
         <v>2.04</v>
@@ -10390,19 +10390,19 @@
         <v>2.14</v>
       </c>
       <c r="G74" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I74" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K74" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10417,10 +10417,10 @@
         <v>1.28</v>
       </c>
       <c r="P74" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R74" t="n">
         <v>1.33</v>
@@ -10435,10 +10435,10 @@
         <v>1.03</v>
       </c>
       <c r="V74" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W74" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10456,7 +10456,7 @@
         <v>13</v>
       </c>
       <c r="AC74" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD74" t="n">
         <v>1000</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G75" t="n">
         <v>2.6</v>
@@ -10531,7 +10531,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J75" t="n">
         <v>3.25</v>
@@ -10546,16 +10546,16 @@
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O75" t="n">
         <v>1.35</v>
       </c>
       <c r="P75" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R75" t="n">
         <v>1.3</v>
@@ -10564,7 +10564,7 @@
         <v>3.7</v>
       </c>
       <c r="T75" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U75" t="n">
         <v>2.02</v>
@@ -10579,7 +10579,7 @@
         <v>15.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z75" t="n">
         <v>27</v>
@@ -10597,7 +10597,7 @@
         <v>17</v>
       </c>
       <c r="AE75" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF75" t="n">
         <v>19</v>
@@ -10663,7 +10663,7 @@
         <v>4.6</v>
       </c>
       <c r="H76" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I76" t="n">
         <v>2.42</v>
@@ -10681,10 +10681,10 @@
         <v>1.11</v>
       </c>
       <c r="N76" t="n">
-        <v>1.61</v>
+        <v>2.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P76" t="n">
         <v>1.49</v>
@@ -10714,7 +10714,7 @@
         <v>980</v>
       </c>
       <c r="Y76" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z76" t="n">
         <v>1000</v>
@@ -10723,13 +10723,13 @@
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD76" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE76" t="n">
         <v>1000</v>
@@ -10795,13 +10795,13 @@
         <v>1.6</v>
       </c>
       <c r="G77" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H77" t="n">
         <v>5.2</v>
       </c>
       <c r="I77" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J77" t="n">
         <v>4.2</v>
@@ -10816,7 +10816,7 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O77" t="n">
         <v>1.24</v>
@@ -10825,7 +10825,7 @@
         <v>2.16</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
         <v>1.46</v>
@@ -10834,7 +10834,7 @@
         <v>2.74</v>
       </c>
       <c r="T77" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U77" t="n">
         <v>2.08</v>
@@ -10843,7 +10843,7 @@
         <v>1.18</v>
       </c>
       <c r="W77" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G78" t="n">
         <v>1.4</v>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J78" t="n">
         <v>5.5</v>
@@ -10951,7 +10951,7 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O78" t="n">
         <v>1.19</v>
@@ -10963,10 +10963,10 @@
         <v>1.55</v>
       </c>
       <c r="R78" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S78" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T78" t="n">
         <v>1.87</v>
@@ -10975,7 +10975,7 @@
         <v>1.96</v>
       </c>
       <c r="V78" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W78" t="n">
         <v>3.5</v>
@@ -11020,7 +11020,7 @@
         <v>14</v>
       </c>
       <c r="AK78" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL78" t="n">
         <v>38</v>
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G79" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H79" t="n">
         <v>3.15</v>
@@ -11074,7 +11074,7 @@
         <v>3.3</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K79" t="n">
         <v>4.2</v>
@@ -11101,28 +11101,28 @@
         <v>1.6</v>
       </c>
       <c r="S79" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T79" t="n">
         <v>1.56</v>
       </c>
       <c r="U79" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V79" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W79" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X79" t="n">
         <v>25</v>
       </c>
       <c r="Y79" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA79" t="n">
         <v>55</v>
@@ -11134,19 +11134,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE79" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF79" t="n">
         <v>17</v>
       </c>
       <c r="AG79" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI79" t="n">
         <v>38</v>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G80" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H80" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I80" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J80" t="n">
         <v>5.9</v>
@@ -11215,7 +11215,7 @@
         <v>6.4</v>
       </c>
       <c r="L80" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M80" t="n">
         <v>1.02</v>
@@ -11227,28 +11227,28 @@
         <v>1.1</v>
       </c>
       <c r="P80" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R80" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S80" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T80" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U80" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="V80" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W80" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X80" t="n">
         <v>50</v>
@@ -11263,19 +11263,19 @@
         <v>250</v>
       </c>
       <c r="AB80" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC80" t="n">
         <v>16.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE80" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AF80" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG80" t="n">
         <v>12</v>
@@ -11284,10 +11284,10 @@
         <v>19</v>
       </c>
       <c r="AI80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ80" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK80" t="n">
         <v>12.5</v>
@@ -11299,10 +11299,10 @@
         <v>65</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO80" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
@@ -11332,64 +11332,64 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I81" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J81" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>4.2</v>
       </c>
       <c r="L81" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O81" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P81" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R81" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S81" t="n">
         <v>2.6</v>
       </c>
       <c r="T81" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U81" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V81" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W81" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X81" t="n">
         <v>22</v>
       </c>
       <c r="Y81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z81" t="n">
         <v>19</v>
@@ -11416,28 +11416,28 @@
         <v>17</v>
       </c>
       <c r="AH81" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI81" t="n">
         <v>40</v>
       </c>
       <c r="AJ81" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
         <v>42</v>
       </c>
       <c r="AL81" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM81" t="n">
         <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO81" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -11491,16 +11491,16 @@
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="n">
         <v>1.33</v>
       </c>
       <c r="P82" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R82" t="n">
         <v>1.32</v>
@@ -11512,7 +11512,7 @@
         <v>1.83</v>
       </c>
       <c r="U82" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
         <v>1.25</v>
@@ -11605,7 +11605,7 @@
         <v>1.28</v>
       </c>
       <c r="G83" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H83" t="n">
         <v>13.5</v>
@@ -11614,16 +11614,16 @@
         <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K83" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N83" t="n">
         <v>4.4</v>
@@ -11668,7 +11668,7 @@
         <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC83" t="n">
         <v>980</v>
@@ -11692,7 +11692,7 @@
         <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AK83" t="n">
         <v>980</v>
@@ -11740,61 +11740,61 @@
         <v>1.94</v>
       </c>
       <c r="G84" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H84" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J84" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="K84" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P84" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="R84" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S84" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="T84" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U84" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V84" t="n">
         <v>1.26</v>
       </c>
       <c r="W84" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X84" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z84" t="n">
         <v>36</v>
@@ -11803,10 +11803,10 @@
         <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC84" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD84" t="n">
         <v>20</v>
@@ -11815,7 +11815,7 @@
         <v>60</v>
       </c>
       <c r="AF84" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG84" t="n">
         <v>13</v>
@@ -11824,25 +11824,25 @@
         <v>22</v>
       </c>
       <c r="AI84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ84" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL84" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO84" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G85" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H85" t="n">
         <v>3.8</v>
@@ -11884,10 +11884,10 @@
         <v>4.3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L85" t="n">
         <v>1.3</v>
@@ -11911,7 +11911,7 @@
         <v>1.41</v>
       </c>
       <c r="S85" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T85" t="n">
         <v>1.7</v>
@@ -11923,7 +11923,7 @@
         <v>1.3</v>
       </c>
       <c r="W85" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G86" t="n">
         <v>2.8</v>
       </c>
       <c r="H86" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I86" t="n">
         <v>3.45</v>
@@ -12028,19 +12028,19 @@
         <v>1.66</v>
       </c>
       <c r="M86" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N86" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O86" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P86" t="n">
         <v>1.44</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="R86" t="n">
         <v>1.15</v>
@@ -12049,7 +12049,7 @@
         <v>6.4</v>
       </c>
       <c r="T86" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U86" t="n">
         <v>1.67</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G87" t="n">
         <v>2.82</v>
@@ -12163,19 +12163,19 @@
         <v>1.62</v>
       </c>
       <c r="M87" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N87" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O87" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P87" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="R87" t="n">
         <v>1.16</v>
@@ -12208,10 +12208,10 @@
         <v>65</v>
       </c>
       <c r="AB87" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD87" t="n">
         <v>15.5</v>
@@ -12235,7 +12235,7 @@
         <v>50</v>
       </c>
       <c r="AK87" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL87" t="n">
         <v>80</v>
@@ -12280,49 +12280,49 @@
         <v>1.83</v>
       </c>
       <c r="G88" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H88" t="n">
         <v>4.6</v>
       </c>
       <c r="I88" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J88" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
         <v>4.3</v>
       </c>
       <c r="L88" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M88" t="n">
         <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="O88" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P88" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R88" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="S88" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="T88" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="U88" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="V88" t="n">
         <v>1.27</v>
@@ -12331,31 +12331,31 @@
         <v>2.16</v>
       </c>
       <c r="X88" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z88" t="n">
         <v>38</v>
       </c>
       <c r="AA88" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF88" t="n">
         <v>13</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>13.5</v>
       </c>
       <c r="AG88" t="n">
         <v>10.5</v>
@@ -12364,25 +12364,25 @@
         <v>16.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ88" t="n">
         <v>21</v>
       </c>
       <c r="AK88" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL88" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM88" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN88" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO88" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
@@ -12415,49 +12415,49 @@
         <v>2.4</v>
       </c>
       <c r="G89" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H89" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I89" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K89" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L89" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="O89" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P89" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R89" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="S89" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="U89" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V89" t="n">
         <v>1.51</v>
@@ -12466,58 +12466,58 @@
         <v>1.68</v>
       </c>
       <c r="X89" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y89" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC89" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE89" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AF89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ89" t="n">
         <v>34</v>
       </c>
       <c r="AK89" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL89" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM89" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AN89" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO89" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="90">
@@ -12559,7 +12559,7 @@
         <v>2.58</v>
       </c>
       <c r="J90" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K90" t="n">
         <v>3.85</v>
@@ -12577,7 +12577,7 @@
         <v>1.35</v>
       </c>
       <c r="P90" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q90" t="n">
         <v>2.02</v>
@@ -12607,13 +12607,13 @@
         <v>10.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC90" t="n">
         <v>9.800000000000001</v>
@@ -12628,7 +12628,7 @@
         <v>26</v>
       </c>
       <c r="AG90" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH90" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>280</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>12.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>160</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>1.16</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>1.14</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
         <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>1.11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
         <v>1.83</v>
@@ -1120,64 +1120,64 @@
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
         <v>40</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB5" t="n">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1210,55 +1210,55 @@
         <v>3.35</v>
       </c>
       <c r="G6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,16 +1288,16 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
         <v>14.5</v>
@@ -1354,64 +1354,64 @@
         <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
         <v>980</v>
       </c>
-      <c r="Y7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,10 +1483,10 @@
         <v>5.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1495,7 +1495,7 @@
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1504,55 +1504,55 @@
         <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.21</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1636,34 +1636,34 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>1.11</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
         <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
         <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1828,7 +1828,7 @@
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
@@ -1849,7 +1849,7 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="AO10" t="n">
         <v>100</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
         <v>10.5</v>
@@ -1894,10 +1894,10 @@
         <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.17</v>
@@ -1906,34 +1906,34 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="T11" t="n">
         <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
         <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1948,7 +1948,7 @@
         <v>400</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>21</v>
@@ -1960,13 +1960,13 @@
         <v>150</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
         <v>260</v>
@@ -1978,13 +1978,13 @@
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AO11" t="n">
         <v>110</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="T12" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>2.8</v>
+        <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>290</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2170,28 +2170,28 @@
         <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
         <v>2.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
         <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
         <v>1.86</v>
@@ -2200,10 +2200,10 @@
         <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2227,7 +2227,7 @@
         <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
@@ -2239,25 +2239,25 @@
         <v>60</v>
       </c>
       <c r="AI13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -2287,43 +2287,43 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
         <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
         <v>4.6</v>
@@ -2332,10 +2332,10 @@
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
         <v>1.89</v>
@@ -2356,7 +2356,7 @@
         <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,55 +2422,55 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.35</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
         <v>1.51</v>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
         <v>60</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2560,25 +2560,25 @@
         <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
         <v>1.41</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
         <v>2.68</v>
       </c>
       <c r="K16" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>1.98</v>
@@ -2605,13 +2605,13 @@
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
         <v>1.19</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H17" t="n">
         <v>1.56</v>
       </c>
       <c r="I17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2716,31 +2716,31 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="W17" t="n">
         <v>1.15</v>
@@ -2749,25 +2749,25 @@
         <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K18" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,7 +2965,7 @@
         <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>2.84</v>
@@ -2980,40 +2980,40 @@
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="O19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="T19" t="n">
         <v>2.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
         <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X19" t="n">
         <v>8.199999999999999</v>
@@ -3055,7 +3055,7 @@
         <v>220</v>
       </c>
       <c r="AK19" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3106,16 +3106,16 @@
         <v>2.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="M20" t="n">
         <v>1.13</v>
@@ -3124,19 +3124,19 @@
         <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="R20" t="n">
         <v>1.14</v>
       </c>
       <c r="S20" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
         <v>2.2</v>
@@ -3154,10 +3154,10 @@
         <v>7.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
         <v>170</v>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AF20" t="n">
         <v>22</v>
@@ -3232,64 +3232,64 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="I21" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S21" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.52</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3304,25 +3304,25 @@
         <v>42</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3334,10 +3334,10 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -3367,49 +3367,49 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
         <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
         <v>2.08</v>
@@ -3421,10 +3421,10 @@
         <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3436,28 +3436,28 @@
         <v>18</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
         <v>29</v>
       </c>
       <c r="AG22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH22" t="n">
         <v>40</v>
       </c>
-      <c r="AH22" t="n">
-        <v>980</v>
-      </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="G23" t="n">
         <v>8.4</v>
@@ -3511,46 +3511,46 @@
         <v>1.53</v>
       </c>
       <c r="I23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W23" t="n">
         <v>1.14</v>
@@ -3559,7 +3559,7 @@
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>40</v>
@@ -3589,7 +3589,7 @@
         <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3643,10 +3643,10 @@
         <v>6.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
@@ -3655,10 +3655,10 @@
         <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>6</v>
@@ -3667,16 +3667,16 @@
         <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q24" t="n">
         <v>1.47</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>
@@ -3775,25 +3775,25 @@
         <v>1.51</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I25" t="n">
         <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
         <v>5.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
         <v>5.7</v>
@@ -3802,16 +3802,16 @@
         <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q25" t="n">
         <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T25" t="n">
         <v>1.63</v>
@@ -3874,7 +3874,7 @@
         <v>300</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO25" t="n">
         <v>120</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
@@ -3925,19 +3925,19 @@
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q26" t="n">
         <v>1.67</v>
@@ -3946,19 +3946,19 @@
         <v>1.49</v>
       </c>
       <c r="S26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T26" t="n">
         <v>1.59</v>
       </c>
       <c r="U26" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
         <v>21</v>
@@ -3988,7 +3988,7 @@
         <v>85</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>16.5</v>
@@ -3997,7 +3997,7 @@
         <v>180</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO26" t="n">
         <v>14</v>
@@ -4042,46 +4042,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
         <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K27" t="n">
         <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
         <v>1.71</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="T27" t="n">
         <v>1.71</v>
@@ -4180,13 +4180,13 @@
         <v>1.63</v>
       </c>
       <c r="G28" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
         <v>4.6</v>
@@ -4207,28 +4207,28 @@
         <v>1.12</v>
       </c>
       <c r="P28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q28" t="n">
         <v>1.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T28" t="n">
         <v>1.46</v>
       </c>
       <c r="U28" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X28" t="n">
         <v>980</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="I29" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="J29" t="n">
         <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L29" t="n">
         <v>1.28</v>
@@ -4345,13 +4345,13 @@
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
         <v>1.03</v>
@@ -4360,10 +4360,10 @@
         <v>1.03</v>
       </c>
       <c r="V29" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="W29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,61 +4447,61 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.93</v>
       </c>
       <c r="V30" t="n">
         <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
         <v>980</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
         <v>980</v>
@@ -4525,10 +4525,10 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>980</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
         <v>2.16</v>
       </c>
       <c r="I31" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
@@ -4600,49 +4600,49 @@
         <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W31" t="n">
         <v>1.33</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
         <v>980</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AF31" t="n">
         <v>980</v>
@@ -4717,58 +4717,58 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.3</v>
       </c>
-      <c r="I32" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O32" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
         <v>15.5</v>
@@ -4777,16 +4777,16 @@
         <v>15</v>
       </c>
       <c r="Z32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AB32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
         <v>18</v>
@@ -4795,25 +4795,25 @@
         <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="n">
         <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
@@ -4822,7 +4822,7 @@
         <v>24</v>
       </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="G33" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="I33" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.27</v>
@@ -4876,7 +4876,7 @@
         <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.17</v>
@@ -4885,25 +4885,25 @@
         <v>2.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T33" t="n">
         <v>1.54</v>
       </c>
       <c r="U33" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V33" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W33" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X33" t="n">
         <v>34</v>
@@ -4915,49 +4915,49 @@
         <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AB33" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG33" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AK33" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO33" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G34" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H34" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.19</v>
@@ -5011,28 +5011,28 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P34" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="S34" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="T34" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="U34" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="V34" t="n">
         <v>1.27</v>
@@ -5059,7 +5059,7 @@
         <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5071,7 +5071,7 @@
         <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>85</v>
+        <v>14.5</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="G35" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="H35" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="X35" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC35" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG35" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10</v>
-      </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ35" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G36" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5275,25 +5275,25 @@
         <v>3.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M36" t="n">
         <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O36" t="n">
         <v>1.61</v>
       </c>
       <c r="P36" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
         <v>2.86</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S36" t="n">
         <v>6.2</v>
@@ -5302,61 +5302,61 @@
         <v>2.22</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X36" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y36" t="n">
         <v>7.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA36" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC36" t="n">
         <v>7</v>
       </c>
       <c r="AD36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF36" t="n">
         <v>21</v>
       </c>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AJ36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL36" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN36" t="n">
         <v>75</v>
@@ -5395,13 +5395,13 @@
         <v>1.57</v>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H37" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J37" t="n">
         <v>4.3</v>
@@ -5410,13 +5410,13 @@
         <v>4.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O37" t="n">
         <v>1.27</v>
@@ -5425,13 +5425,13 @@
         <v>2.08</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
         <v>1.42</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
         <v>1.91</v>
@@ -5440,19 +5440,19 @@
         <v>1.96</v>
       </c>
       <c r="V37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
         <v>2.6</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5464,7 +5464,7 @@
         <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -5485,10 +5485,10 @@
         <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
@@ -5530,13 +5530,13 @@
         <v>2.18</v>
       </c>
       <c r="G38" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>3.3</v>
@@ -5545,91 +5545,91 @@
         <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R38" t="n">
         <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
         <v>17</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
         <v>190</v>
       </c>
       <c r="AJ38" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="J39" t="n">
-        <v>1.52</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P39" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
-        <v>1.13</v>
+        <v>2.02</v>
       </c>
       <c r="T39" t="n">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="U39" t="n">
-        <v>1.03</v>
+        <v>2.72</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -5797,61 +5797,61 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="G40" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="H40" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J40" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>1.11</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>2.04</v>
+        <v>4.2</v>
       </c>
       <c r="T40" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U40" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V40" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W40" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X40" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5863,10 +5863,10 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5887,7 +5887,7 @@
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK40" t="n">
         <v>1000</v>
@@ -5932,61 +5932,61 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="G41" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="H41" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
         <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P41" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="U41" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="W41" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
@@ -6022,10 +6022,10 @@
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6067,46 +6067,46 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I42" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="J42" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K42" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.33</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T42" t="n">
         <v>2.58</v>
@@ -6115,19 +6115,19 @@
         <v>1.55</v>
       </c>
       <c r="V42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6136,13 +6136,13 @@
         <v>6.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE42" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
         <v>6.8</v>
@@ -6151,28 +6151,28 @@
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM42" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO42" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H43" t="n">
         <v>3.45</v>
@@ -6217,25 +6217,25 @@
         <v>2.8</v>
       </c>
       <c r="K43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="M43" t="n">
         <v>1.15</v>
       </c>
       <c r="N43" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O43" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P43" t="n">
         <v>1.45</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="R43" t="n">
         <v>1.18</v>
@@ -6244,16 +6244,16 @@
         <v>6.2</v>
       </c>
       <c r="T43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U43" t="n">
         <v>1.68</v>
       </c>
       <c r="V43" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X43" t="n">
         <v>7.6</v>
@@ -6283,7 +6283,7 @@
         <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
         <v>65</v>
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I44" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J44" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K44" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O44" t="n">
         <v>1.21</v>
       </c>
       <c r="P44" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R44" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S44" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="T44" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U44" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>1.14</v>
       </c>
       <c r="W44" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6406,7 +6406,7 @@
         <v>980</v>
       </c>
       <c r="AC44" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6415,7 +6415,7 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG44" t="n">
         <v>40</v>
@@ -6427,10 +6427,10 @@
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK44" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
         <v>1000</v>
@@ -6439,7 +6439,7 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G45" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H45" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="n">
         <v>4</v>
@@ -6490,13 +6490,13 @@
         <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
         <v>1.31</v>
@@ -6505,16 +6505,16 @@
         <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R45" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S45" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U45" t="n">
         <v>2.04</v>
@@ -6523,13 +6523,13 @@
         <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X45" t="n">
         <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Z45" t="n">
         <v>46</v>
@@ -6538,16 +6538,16 @@
         <v>150</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45" t="n">
         <v>22</v>
       </c>
       <c r="AE45" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="n">
         <v>10.5</v>
@@ -6556,25 +6556,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
         <v>80</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL45" t="n">
         <v>38</v>
       </c>
       <c r="AM45" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO45" t="n">
         <v>90</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H46" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="J46" t="n">
         <v>3.4</v>
@@ -6631,7 +6631,7 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.35</v>
@@ -6643,7 +6643,7 @@
         <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S46" t="n">
         <v>3.85</v>
@@ -6655,40 +6655,40 @@
         <v>2.18</v>
       </c>
       <c r="V46" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W46" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
         <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AF46" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH46" t="n">
         <v>17.5</v>
@@ -6697,19 +6697,19 @@
         <v>46</v>
       </c>
       <c r="AJ46" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK46" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
         <v>110</v>
       </c>
       <c r="AN46" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO46" t="n">
         <v>28</v>
@@ -6742,112 +6742,112 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.6</v>
       </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L47" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.46</v>
-      </c>
       <c r="T47" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U47" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="X47" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y47" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Z47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA47" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
         <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE47" t="n">
         <v>55</v>
       </c>
       <c r="AF47" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH47" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI47" t="n">
         <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AO47" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48">
@@ -6877,43 +6877,43 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="G48" t="n">
-        <v>980</v>
+        <v>2.58</v>
       </c>
       <c r="H48" t="n">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="I48" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="J48" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="K48" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P48" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="R48" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="S48" t="n">
         <v>1.05</v>
@@ -6928,10 +6928,10 @@
         <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
         <v>1000</v>
@@ -6946,7 +6946,7 @@
         <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD48" t="n">
         <v>1000</v>
@@ -7012,112 +7012,112 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="G49" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I49" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O49" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="P49" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="R49" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S49" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U49" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W49" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y49" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AB49" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD49" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF49" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ49" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK49" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AL49" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="n">
         <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G50" t="n">
         <v>2.66</v>
@@ -7165,10 +7165,10 @@
         <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
         <v>4.2</v>
@@ -7177,10 +7177,10 @@
         <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R50" t="n">
         <v>1.44</v>
@@ -7189,16 +7189,16 @@
         <v>2.78</v>
       </c>
       <c r="T50" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U50" t="n">
         <v>2.3</v>
       </c>
       <c r="V50" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W50" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X50" t="n">
         <v>19.5</v>
@@ -7207,7 +7207,7 @@
         <v>15.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AA50" t="n">
         <v>55</v>
@@ -7222,7 +7222,7 @@
         <v>14</v>
       </c>
       <c r="AE50" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
         <v>19</v>
@@ -7234,7 +7234,7 @@
         <v>19</v>
       </c>
       <c r="AI50" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ50" t="n">
         <v>40</v>
@@ -7282,46 +7282,46 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>3.1</v>
       </c>
       <c r="H51" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I51" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J51" t="n">
         <v>2.98</v>
       </c>
-      <c r="J51" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L51" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M51" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N51" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O51" t="n">
         <v>1.54</v>
       </c>
       <c r="P51" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R51" t="n">
         <v>1.19</v>
       </c>
       <c r="S51" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T51" t="n">
         <v>2.06</v>
@@ -7330,7 +7330,7 @@
         <v>1.78</v>
       </c>
       <c r="V51" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W51" t="n">
         <v>1.47</v>
@@ -7339,22 +7339,22 @@
         <v>10.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="n">
         <v>130</v>
       </c>
       <c r="AB51" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE51" t="n">
         <v>230</v>
@@ -7378,16 +7378,16 @@
         <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO51" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
         <v>1.99</v>
@@ -7435,13 +7435,13 @@
         <v>3.55</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M52" t="n">
         <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="O52" t="n">
         <v>1.49</v>
@@ -7456,7 +7456,7 @@
         <v>1.2</v>
       </c>
       <c r="S52" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T52" t="n">
         <v>2.06</v>
@@ -7468,7 +7468,7 @@
         <v>1.8</v>
       </c>
       <c r="W52" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X52" t="n">
         <v>9.6</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G53" t="n">
         <v>3.75</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>2.5</v>
@@ -7564,46 +7564,46 @@
         <v>2.52</v>
       </c>
       <c r="J53" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L53" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M53" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N53" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="O53" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P53" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R53" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S53" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T53" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U53" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V53" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W53" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X53" t="n">
         <v>7.6</v>
@@ -7627,37 +7627,37 @@
         <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="n">
         <v>25</v>
       </c>
       <c r="AG53" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI53" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="n">
         <v>90</v>
       </c>
       <c r="AK53" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL53" t="n">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="AM53" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN53" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO53" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G54" t="n">
         <v>2.94</v>
@@ -7696,46 +7696,46 @@
         <v>3.05</v>
       </c>
       <c r="I54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K54" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L54" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M54" t="n">
         <v>1.12</v>
       </c>
       <c r="N54" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O54" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P54" t="n">
         <v>1.56</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R54" t="n">
         <v>1.2</v>
       </c>
       <c r="S54" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T54" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V54" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W54" t="n">
         <v>1.52</v>
@@ -7747,25 +7747,25 @@
         <v>10.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA54" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB54" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD54" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE54" t="n">
         <v>60</v>
       </c>
       <c r="AF54" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG54" t="n">
         <v>14.5</v>
@@ -7780,19 +7780,19 @@
         <v>55</v>
       </c>
       <c r="AK54" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AL54" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="AM54" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO54" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55">
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="G55" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="J55" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K55" t="n">
         <v>4.7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -7849,73 +7849,73 @@
         <v>7.6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P55" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R55" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S55" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T55" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U55" t="n">
         <v>3</v>
       </c>
       <c r="V55" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA55" t="n">
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC55" t="n">
         <v>14.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AE55" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG55" t="n">
         <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ55" t="n">
         <v>28</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="n">
         <v>28</v>
@@ -7924,10 +7924,10 @@
         <v>50</v>
       </c>
       <c r="AN55" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G56" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="H56" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I56" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>1.47</v>
@@ -7981,28 +7981,28 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O56" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P56" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R56" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V56" t="n">
         <v>1.21</v>
@@ -8011,16 +8011,16 @@
         <v>1.85</v>
       </c>
       <c r="X56" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z56" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB56" t="n">
         <v>7.8</v>
@@ -8029,40 +8029,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD56" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF56" t="n">
         <v>11.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>23</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>22</v>
       </c>
       <c r="AK56" t="n">
         <v>24</v>
       </c>
       <c r="AL56" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN56" t="n">
         <v>17.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57">
@@ -8092,112 +8092,112 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G57" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I57" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O57" t="n">
         <v>1.45</v>
       </c>
       <c r="P57" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R57" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S57" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U57" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V57" t="n">
         <v>1.09</v>
       </c>
       <c r="W57" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="X57" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z57" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA57" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="AB57" t="n">
         <v>6</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AE57" t="n">
         <v>280</v>
       </c>
       <c r="AF57" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG57" t="n">
         <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AI57" t="n">
         <v>270</v>
       </c>
       <c r="AJ57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL57" t="n">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="AM57" t="n">
         <v>360</v>
       </c>
       <c r="AN57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO57" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58">
@@ -8227,55 +8227,55 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G58" t="n">
         <v>2.2</v>
       </c>
       <c r="H58" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I58" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
         <v>2.82</v>
       </c>
       <c r="K58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M58" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N58" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O58" t="n">
         <v>1.65</v>
       </c>
       <c r="P58" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="R58" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S58" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T58" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U58" t="n">
         <v>1.6</v>
       </c>
       <c r="V58" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W58" t="n">
         <v>1.83</v>
@@ -8293,7 +8293,7 @@
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>29</v>
+        <v>6.8</v>
       </c>
       <c r="AC58" t="n">
         <v>8.800000000000001</v>
@@ -8305,7 +8305,7 @@
         <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
         <v>1000</v>
@@ -8362,112 +8362,112 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="G59" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K59" t="n">
         <v>3.1</v>
       </c>
       <c r="L59" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="M59" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N59" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="O59" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P59" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R59" t="n">
         <v>1.17</v>
       </c>
       <c r="S59" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="T59" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W59" t="n">
         <v>1.66</v>
       </c>
-      <c r="V59" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X59" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA59" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="AB59" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC59" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AF59" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG59" t="n">
         <v>12.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="AJ59" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK59" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL59" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM59" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN59" t="n">
         <v>42</v>
       </c>
       <c r="AO59" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60">
@@ -8497,31 +8497,31 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G60" t="n">
         <v>2.04</v>
       </c>
       <c r="H60" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I60" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K60" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="M60" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N60" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O60" t="n">
         <v>1.58</v>
@@ -8530,13 +8530,13 @@
         <v>1.47</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R60" t="n">
         <v>1.17</v>
       </c>
       <c r="S60" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T60" t="n">
         <v>2.3</v>
@@ -8554,7 +8554,7 @@
         <v>9.6</v>
       </c>
       <c r="Y60" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z60" t="n">
         <v>55</v>
@@ -8569,13 +8569,13 @@
         <v>9.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE60" t="n">
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
         <v>12</v>
@@ -8587,7 +8587,7 @@
         <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AK60" t="n">
         <v>32</v>
@@ -8632,82 +8632,82 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G61" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="H61" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>4.7</v>
       </c>
       <c r="K61" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.35</v>
       </c>
       <c r="P61" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="R61" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T61" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U61" t="n">
         <v>1.66</v>
       </c>
       <c r="V61" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W61" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y61" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z61" t="n">
-        <v>110</v>
+        <v>540</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AB61" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC61" t="n">
         <v>11.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE61" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF61" t="n">
         <v>7.4</v>
@@ -8731,13 +8731,13 @@
         <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AN61" t="n">
         <v>8.4</v>
       </c>
       <c r="AO61" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
@@ -8770,46 +8770,46 @@
         <v>2.28</v>
       </c>
       <c r="G62" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
         <v>3.65</v>
       </c>
       <c r="J62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K62" t="n">
         <v>3.6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P62" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="R62" t="n">
         <v>1.31</v>
       </c>
       <c r="S62" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T62" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U62" t="n">
         <v>2.04</v>
@@ -8818,13 +8818,13 @@
         <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z62" t="n">
         <v>1000</v>
@@ -8833,31 +8833,31 @@
         <v>1000</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE62" t="n">
         <v>1000</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG62" t="n">
         <v>13</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI62" t="n">
         <v>1000</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK62" t="n">
         <v>1000</v>
@@ -8869,7 +8869,7 @@
         <v>1000</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO62" t="n">
         <v>1000</v>
@@ -8902,55 +8902,55 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H63" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I63" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>1.66</v>
+        <v>3.2</v>
       </c>
       <c r="O63" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P63" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R63" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S63" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="T63" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="U63" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V63" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W63" t="n">
         <v>2.08</v>
@@ -8971,7 +8971,7 @@
         <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD63" t="n">
         <v>1000</v>
@@ -9004,7 +9004,7 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9040,106 +9040,106 @@
         <v>4.1</v>
       </c>
       <c r="G64" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H64" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I64" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J64" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
         <v>3.75</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M64" t="n">
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O64" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P64" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R64" t="n">
         <v>1.28</v>
       </c>
       <c r="S64" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T64" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V64" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W64" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA64" t="n">
         <v>29</v>
       </c>
       <c r="AB64" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD64" t="n">
         <v>11.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF64" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AG64" t="n">
         <v>22</v>
       </c>
       <c r="AH64" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ64" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK64" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AL64" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN64" t="n">
         <v>90</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>95</v>
       </c>
       <c r="AO64" t="n">
         <v>21</v>
@@ -9175,37 +9175,37 @@
         <v>3.1</v>
       </c>
       <c r="G65" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H65" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I65" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K65" t="n">
         <v>3.2</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M65" t="n">
         <v>1.14</v>
       </c>
       <c r="N65" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O65" t="n">
         <v>1.6</v>
       </c>
       <c r="P65" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="R65" t="n">
         <v>1.17</v>
@@ -9214,16 +9214,16 @@
         <v>6.2</v>
       </c>
       <c r="T65" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U65" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V65" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W65" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X65" t="n">
         <v>8</v>
@@ -9238,7 +9238,7 @@
         <v>46</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC65" t="n">
         <v>7.2</v>
@@ -9247,7 +9247,7 @@
         <v>13.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AF65" t="n">
         <v>19</v>
@@ -9259,7 +9259,7 @@
         <v>26</v>
       </c>
       <c r="AI65" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="n">
         <v>65</v>
@@ -9268,7 +9268,7 @@
         <v>55</v>
       </c>
       <c r="AL65" t="n">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="AM65" t="n">
         <v>210</v>
@@ -9307,31 +9307,31 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I66" t="n">
         <v>1.48</v>
       </c>
       <c r="J66" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K66" t="n">
         <v>5</v>
       </c>
       <c r="L66" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O66" t="n">
         <v>1.34</v>
@@ -9340,13 +9340,13 @@
         <v>1.86</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="R66" t="n">
         <v>1.32</v>
       </c>
       <c r="S66" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T66" t="n">
         <v>2.24</v>
@@ -9364,34 +9364,34 @@
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="Z66" t="n">
         <v>7.8</v>
       </c>
       <c r="AA66" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AB66" t="n">
         <v>1000</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF66" t="n">
         <v>1000</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH66" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI66" t="n">
         <v>1000</v>
@@ -9412,7 +9412,7 @@
         <v>1000</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -9442,46 +9442,46 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G67" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L67" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O67" t="n">
         <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R67" t="n">
         <v>1.25</v>
       </c>
       <c r="S67" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T67" t="n">
         <v>1.86</v>
@@ -9490,10 +9490,10 @@
         <v>1.9</v>
       </c>
       <c r="V67" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W67" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9511,7 +9511,7 @@
         <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD67" t="n">
         <v>1000</v>
@@ -9577,25 +9577,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G68" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H68" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I68" t="n">
         <v>21</v>
       </c>
       <c r="J68" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K68" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L68" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -9604,37 +9604,37 @@
         <v>4.4</v>
       </c>
       <c r="O68" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P68" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R68" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S68" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T68" t="n">
         <v>2.72</v>
       </c>
       <c r="U68" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V68" t="n">
         <v>1.05</v>
       </c>
       <c r="W68" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X68" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z68" t="n">
         <v>210</v>
@@ -9643,7 +9643,7 @@
         <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC68" t="n">
         <v>15</v>
@@ -9664,10 +9664,10 @@
         <v>55</v>
       </c>
       <c r="AI68" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK68" t="n">
         <v>16.5</v>
@@ -9676,10 +9676,10 @@
         <v>65</v>
       </c>
       <c r="AM68" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AN68" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO68" t="n">
         <v>820</v>
@@ -9712,61 +9712,61 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="G69" t="n">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="I69" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="K69" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>2.2</v>
+        <v>3.85</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P69" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="R69" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="S69" t="n">
-        <v>1.25</v>
+        <v>2.68</v>
       </c>
       <c r="T69" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="U69" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="V69" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="X69" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y69" t="n">
         <v>1000</v>
@@ -9778,10 +9778,10 @@
         <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC69" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD69" t="n">
         <v>1000</v>
@@ -9790,22 +9790,22 @@
         <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI69" t="n">
         <v>1000</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL69" t="n">
         <v>1000</v>
@@ -9814,7 +9814,7 @@
         <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO69" t="n">
         <v>1000</v>
@@ -9847,58 +9847,58 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="G70" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="H70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K70" t="n">
         <v>4.1</v>
       </c>
-      <c r="I70" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O70" t="n">
         <v>1.34</v>
       </c>
-      <c r="M70" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R70" t="n">
         <v>1.32</v>
       </c>
-      <c r="P70" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S70" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T70" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U70" t="n">
         <v>1.98</v>
       </c>
       <c r="V70" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W70" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9982,31 +9982,31 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G71" t="n">
         <v>6.8</v>
       </c>
       <c r="H71" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I71" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J71" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L71" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M71" t="n">
         <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10015,7 +10015,7 @@
         <v>1.78</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R71" t="n">
         <v>1.29</v>
@@ -10030,7 +10030,7 @@
         <v>1.82</v>
       </c>
       <c r="V71" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W71" t="n">
         <v>1.17</v>
@@ -10063,7 +10063,7 @@
         <v>980</v>
       </c>
       <c r="AG71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH71" t="n">
         <v>29</v>
@@ -10087,7 +10087,7 @@
         <v>1000</v>
       </c>
       <c r="AO71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -10117,58 +10117,58 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G72" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S72" t="n">
         <v>3.7</v>
       </c>
-      <c r="K72" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S72" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T72" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U72" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V72" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W72" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10183,7 +10183,7 @@
         <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC72" t="n">
         <v>10.5</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G73" t="n">
         <v>2.14</v>
       </c>
       <c r="H73" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J73" t="n">
         <v>3.5</v>
@@ -10270,28 +10270,28 @@
         <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M73" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O73" t="n">
         <v>1.32</v>
       </c>
       <c r="P73" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R73" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S73" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T73" t="n">
         <v>1.79</v>
@@ -10300,10 +10300,10 @@
         <v>2.04</v>
       </c>
       <c r="V73" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W73" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X73" t="n">
         <v>17.5</v>
@@ -10312,7 +10312,7 @@
         <v>17</v>
       </c>
       <c r="Z73" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA73" t="n">
         <v>1000</v>
@@ -10321,13 +10321,13 @@
         <v>11</v>
       </c>
       <c r="AC73" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD73" t="n">
         <v>19.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
         <v>15.5</v>
@@ -10339,7 +10339,7 @@
         <v>23</v>
       </c>
       <c r="AI73" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ73" t="n">
         <v>30</v>
@@ -10354,7 +10354,7 @@
         <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO73" t="n">
         <v>65</v>
@@ -10387,46 +10387,46 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="H74" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J74" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K74" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L74" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M74" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="O74" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="R74" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S74" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T74" t="n">
         <v>1.03</v>
@@ -10435,10 +10435,10 @@
         <v>1.03</v>
       </c>
       <c r="V74" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W74" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10456,7 +10456,7 @@
         <v>13</v>
       </c>
       <c r="AC74" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD74" t="n">
         <v>1000</v>
@@ -10522,112 +10522,112 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I75" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J75" t="n">
         <v>3.25</v>
       </c>
       <c r="K75" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O75" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R75" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S75" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U75" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="W75" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="X75" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y75" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y75" t="n">
-        <v>14</v>
-      </c>
       <c r="Z75" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA75" t="n">
         <v>1000</v>
       </c>
       <c r="AB75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC75" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE75" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF75" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI75" t="n">
         <v>1000</v>
       </c>
       <c r="AJ75" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK75" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL75" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM75" t="n">
         <v>1000</v>
       </c>
       <c r="AN75" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO75" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -10657,40 +10657,40 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G76" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I76" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J76" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K76" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M76" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N76" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O76" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="P76" t="n">
         <v>1.49</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="R76" t="n">
         <v>1.17</v>
@@ -10699,16 +10699,16 @@
         <v>5.5</v>
       </c>
       <c r="T76" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U76" t="n">
         <v>1.71</v>
       </c>
       <c r="V76" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W76" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X76" t="n">
         <v>980</v>
@@ -10792,58 +10792,58 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G77" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>5.2</v>
       </c>
       <c r="I77" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J77" t="n">
         <v>4.2</v>
       </c>
       <c r="K77" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L77" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M77" t="n">
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O77" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P77" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T77" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U77" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V77" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W77" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10861,7 +10861,7 @@
         <v>12</v>
       </c>
       <c r="AC77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD77" t="n">
         <v>1000</v>
@@ -10894,7 +10894,7 @@
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO77" t="n">
         <v>1000</v>
@@ -10927,28 +10927,28 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H78" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I78" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J78" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K78" t="n">
         <v>6.4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N78" t="n">
         <v>5.3</v>
@@ -10957,28 +10957,28 @@
         <v>1.19</v>
       </c>
       <c r="P78" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R78" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S78" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T78" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U78" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V78" t="n">
         <v>1.09</v>
       </c>
       <c r="W78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="X78" t="n">
         <v>32</v>
@@ -10993,7 +10993,7 @@
         <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC78" t="n">
         <v>15.5</v>
@@ -11017,7 +11017,7 @@
         <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK78" t="n">
         <v>16</v>
@@ -11065,40 +11065,40 @@
         <v>2.2</v>
       </c>
       <c r="G79" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H79" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J79" t="n">
         <v>3.95</v>
       </c>
       <c r="K79" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M79" t="n">
         <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O79" t="n">
         <v>1.2</v>
       </c>
       <c r="P79" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S79" t="n">
         <v>2.5</v>
@@ -11107,67 +11107,67 @@
         <v>1.56</v>
       </c>
       <c r="U79" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V79" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W79" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z79" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD79" t="n">
         <v>14</v>
       </c>
       <c r="AE79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF79" t="n">
         <v>17</v>
       </c>
       <c r="AG79" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI79" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="n">
         <v>30</v>
       </c>
       <c r="AK79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL79" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM79" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN79" t="n">
         <v>11.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -11203,10 +11203,10 @@
         <v>1.42</v>
       </c>
       <c r="H80" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I80" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J80" t="n">
         <v>5.9</v>
@@ -11215,34 +11215,34 @@
         <v>6.4</v>
       </c>
       <c r="L80" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P80" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q80" t="n">
         <v>1.32</v>
       </c>
       <c r="R80" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="S80" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="T80" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U80" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V80" t="n">
         <v>1.13</v>
@@ -11257,7 +11257,7 @@
         <v>55</v>
       </c>
       <c r="Z80" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA80" t="n">
         <v>250</v>
@@ -11272,10 +11272,10 @@
         <v>32</v>
       </c>
       <c r="AE80" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF80" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG80" t="n">
         <v>12</v>
@@ -11284,7 +11284,7 @@
         <v>19</v>
       </c>
       <c r="AI80" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ80" t="n">
         <v>15</v>
@@ -11299,10 +11299,10 @@
         <v>65</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO80" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G81" t="n">
         <v>3.6</v>
@@ -11341,19 +11341,19 @@
         <v>2.16</v>
       </c>
       <c r="I81" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K81" t="n">
         <v>4.2</v>
       </c>
       <c r="L81" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N81" t="n">
         <v>4.4</v>
@@ -11362,7 +11362,7 @@
         <v>1.24</v>
       </c>
       <c r="P81" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q81" t="n">
         <v>1.68</v>
@@ -11371,16 +11371,16 @@
         <v>1.47</v>
       </c>
       <c r="S81" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="T81" t="n">
         <v>1.6</v>
       </c>
       <c r="U81" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V81" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W81" t="n">
         <v>1.39</v>
@@ -11407,7 +11407,7 @@
         <v>13.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF81" t="n">
         <v>30</v>
@@ -11419,7 +11419,7 @@
         <v>19</v>
       </c>
       <c r="AI81" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ81" t="n">
         <v>1000</v>
@@ -11437,7 +11437,7 @@
         <v>32</v>
       </c>
       <c r="AO81" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="82">
@@ -11467,46 +11467,46 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G82" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H82" t="n">
         <v>4.2</v>
       </c>
       <c r="I82" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J82" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K82" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L82" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R82" t="n">
         <v>1.33</v>
       </c>
-      <c r="P82" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S82" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T82" t="n">
         <v>1.83</v>
@@ -11515,10 +11515,10 @@
         <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W82" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X82" t="n">
         <v>16.5</v>
@@ -11545,7 +11545,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG82" t="n">
         <v>12.5</v>
@@ -11602,25 +11602,25 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="G83" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H83" t="n">
         <v>13.5</v>
       </c>
       <c r="I83" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J83" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K83" t="n">
         <v>6.2</v>
       </c>
       <c r="L83" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M83" t="n">
         <v>1.05</v>
@@ -11632,64 +11632,64 @@
         <v>1.26</v>
       </c>
       <c r="P83" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="R83" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S83" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T83" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="U83" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="V83" t="n">
         <v>1.05</v>
       </c>
       <c r="W83" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X83" t="n">
         <v>980</v>
       </c>
       <c r="Y83" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z83" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AA83" t="n">
         <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC83" t="n">
         <v>980</v>
       </c>
       <c r="AD83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE83" t="n">
         <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG83" t="n">
         <v>980</v>
       </c>
       <c r="AH83" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI83" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ83" t="n">
         <v>980</v>
@@ -11743,10 +11743,10 @@
         <v>2.18</v>
       </c>
       <c r="H84" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J84" t="n">
         <v>3.45</v>
@@ -11755,7 +11755,7 @@
         <v>4.2</v>
       </c>
       <c r="L84" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -11770,13 +11770,13 @@
         <v>1.97</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R84" t="n">
         <v>1.37</v>
       </c>
       <c r="S84" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T84" t="n">
         <v>1.71</v>
@@ -11785,10 +11785,10 @@
         <v>2.1</v>
       </c>
       <c r="V84" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W84" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X84" t="n">
         <v>19.5</v>
@@ -11872,28 +11872,28 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="G85" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H85" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I85" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J85" t="n">
         <v>3.7</v>
       </c>
       <c r="K85" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
         <v>4</v>
@@ -11905,25 +11905,25 @@
         <v>2.04</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="R85" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S85" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="T85" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U85" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V85" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W85" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -11938,7 +11938,7 @@
         <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC85" t="n">
         <v>10.5</v>
@@ -12010,46 +12010,46 @@
         <v>2.66</v>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H86" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
         <v>3.45</v>
       </c>
       <c r="J86" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L86" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="M86" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N86" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="O86" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="P86" t="n">
         <v>1.44</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R86" t="n">
         <v>1.15</v>
       </c>
       <c r="S86" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="T86" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U86" t="n">
         <v>1.67</v>
@@ -12058,37 +12058,37 @@
         <v>1.41</v>
       </c>
       <c r="W86" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X86" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y86" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="Z86" t="n">
         <v>980</v>
       </c>
       <c r="AA86" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC86" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD86" t="n">
         <v>980</v>
       </c>
       <c r="AE86" t="n">
-        <v>65</v>
+        <v>570</v>
       </c>
       <c r="AF86" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG86" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH86" t="n">
         <v>980</v>
@@ -12097,7 +12097,7 @@
         <v>120</v>
       </c>
       <c r="AJ86" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK86" t="n">
         <v>980</v>
@@ -12109,7 +12109,7 @@
         <v>300</v>
       </c>
       <c r="AN86" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AO86" t="n">
         <v>110</v>
@@ -12145,10 +12145,10 @@
         <v>2.76</v>
       </c>
       <c r="G87" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I87" t="n">
         <v>3.25</v>
@@ -12160,16 +12160,16 @@
         <v>3.1</v>
       </c>
       <c r="L87" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M87" t="n">
         <v>1.14</v>
       </c>
       <c r="N87" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P87" t="n">
         <v>1.48</v>
@@ -12181,7 +12181,7 @@
         <v>1.16</v>
       </c>
       <c r="S87" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T87" t="n">
         <v>2.16</v>
@@ -12193,7 +12193,7 @@
         <v>1.44</v>
       </c>
       <c r="W87" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X87" t="n">
         <v>7.8</v>
@@ -12223,7 +12223,7 @@
         <v>16.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH87" t="n">
         <v>26</v>
@@ -12292,34 +12292,34 @@
         <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L88" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M88" t="n">
         <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O88" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P88" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R88" t="n">
         <v>1.54</v>
       </c>
       <c r="S88" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T88" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U88" t="n">
         <v>2.34</v>
@@ -12361,13 +12361,13 @@
         <v>10.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI88" t="n">
         <v>55</v>
       </c>
       <c r="AJ88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK88" t="n">
         <v>17</v>
@@ -12379,7 +12379,7 @@
         <v>75</v>
       </c>
       <c r="AN88" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO88" t="n">
         <v>44</v>
@@ -12415,109 +12415,109 @@
         <v>2.4</v>
       </c>
       <c r="G89" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H89" t="n">
         <v>2.86</v>
       </c>
       <c r="I89" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J89" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>4.2</v>
       </c>
       <c r="L89" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
         <v>7</v>
       </c>
       <c r="O89" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R89" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S89" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T89" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U89" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="V89" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W89" t="n">
         <v>1.68</v>
       </c>
       <c r="X89" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y89" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Z89" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AC89" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AF89" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AG89" t="n">
         <v>12.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AJ89" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK89" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL89" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AM89" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN89" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="90">
@@ -12547,100 +12547,100 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J90" t="n">
         <v>3.45</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.4</v>
       </c>
       <c r="K90" t="n">
         <v>3.85</v>
       </c>
       <c r="L90" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M90" t="n">
         <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O90" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P90" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R90" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S90" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T90" t="n">
         <v>1.8</v>
       </c>
       <c r="U90" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W90" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X90" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y90" t="n">
         <v>10.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC90" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD90" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF90" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG90" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
         <v>1000</v>
       </c>
       <c r="AK90" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL90" t="n">
         <v>1000</v>
@@ -12649,7 +12649,7 @@
         <v>1000</v>
       </c>
       <c r="AN90" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AO90" t="n">
         <v>28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.04</v>
       </c>
-      <c r="N2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AF2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG2" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>17</v>
       </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO4" t="n">
         <v>55</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1081,37 +1081,37 @@
         <v>13.5</v>
       </c>
       <c r="I5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1126,13 +1126,13 @@
         <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,43 +1141,43 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF5" t="n">
         <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
         <v>44</v>
       </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="I6" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="S6" t="n">
         <v>2.64</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>15.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
         <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
         <v>75</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1501,16 +1501,16 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
         <v>1.65</v>
@@ -1519,10 +1519,10 @@
         <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
         <v>1.15</v>
@@ -1531,58 +1531,58 @@
         <v>2.72</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>16</v>
       </c>
-      <c r="AH8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
-      </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
         <v>790</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1648,16 +1648,16 @@
         <v>1.24</v>
       </c>
       <c r="R9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S9" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
         <v>1.08</v>
@@ -1666,13 +1666,13 @@
         <v>4.7</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="AA9" t="n">
         <v>400</v>
@@ -1681,13 +1681,13 @@
         <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
         <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -1696,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>260</v>
@@ -1708,13 +1708,13 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AO9" t="n">
         <v>110</v>
@@ -1750,10 +1750,10 @@
         <v>1.86</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>4.7</v>
@@ -1774,85 +1774,85 @@
         <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="V10" t="n">
         <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA10" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>2.82</v>
@@ -1924,10 +1924,10 @@
         <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
         <v>1.47</v>
@@ -1957,7 +1957,7 @@
         <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
         <v>19.5</v>
@@ -1972,22 +1972,22 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO11" t="n">
         <v>90</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>3.25</v>
@@ -2059,7 +2059,7 @@
         <v>4.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
@@ -2071,7 +2071,7 @@
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
@@ -2080,7 +2080,7 @@
         <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>9.4</v>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>17.5</v>
@@ -2107,13 +2107,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
         <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
         <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.6</v>
@@ -2182,19 +2182,19 @@
         <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
         <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2206,7 +2206,7 @@
         <v>2.06</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>16.5</v>
@@ -2227,19 +2227,19 @@
         <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2293,13 +2293,13 @@
         <v>6.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2320,7 +2320,7 @@
         <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
         <v>1.36</v>
@@ -2329,7 +2329,7 @@
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
@@ -2341,49 +2341,49 @@
         <v>1.2</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z14" t="n">
         <v>11.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="AL14" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2428,16 +2428,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="J15" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2455,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
         <v>1.34</v>
@@ -2464,52 +2464,52 @@
         <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2611,10 +2611,10 @@
         <v>4.1</v>
       </c>
       <c r="X16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y16" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2626,10 +2626,10 @@
         <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2641,7 +2641,7 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2842,7 +2842,7 @@
         <v>2.74</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
         <v>1.66</v>
@@ -2875,10 +2875,10 @@
         <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
         <v>7.6</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
         <v>2.84</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
         <v>2.76</v>
@@ -2977,7 +2977,7 @@
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -3016,58 +3016,58 @@
         <v>1.54</v>
       </c>
       <c r="X19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
         <v>44</v>
       </c>
-      <c r="Y19" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
         <v>2.06</v>
@@ -3112,7 +3112,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
@@ -3142,7 +3142,7 @@
         <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
         <v>1.27</v>
@@ -3151,13 +3151,13 @@
         <v>1.94</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,37 +3169,37 @@
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3274,10 +3274,10 @@
         <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
         <v>1.22</v>
@@ -3424,7 +3424,7 @@
         <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
@@ -3454,7 +3454,7 @@
         <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -3541,10 +3541,10 @@
         <v>1.85</v>
       </c>
       <c r="S23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
         <v>2.5</v>
@@ -3679,7 +3679,7 @@
         <v>2.26</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
         <v>2.26</v>
@@ -3691,7 +3691,7 @@
         <v>2.58</v>
       </c>
       <c r="X24" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
         <v>50</v>
@@ -3796,16 +3796,16 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>1.55</v>
@@ -3832,7 +3832,7 @@
         <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="n">
         <v>55</v>
@@ -3877,7 +3877,7 @@
         <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G26" t="n">
         <v>1.74</v>
@@ -3949,7 +3949,7 @@
         <v>1.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="U26" t="n">
         <v>2.88</v>
@@ -4006,7 +4006,7 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
@@ -4093,7 +4093,7 @@
         <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X27" t="n">
         <v>55</v>
@@ -4210,7 +4210,7 @@
         <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
@@ -4219,7 +4219,7 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
         <v>1.9</v>
@@ -4252,7 +4252,7 @@
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF28" t="n">
         <v>23</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G29" t="n">
         <v>3.95</v>
@@ -4327,7 +4327,7 @@
         <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.46</v>
@@ -4336,40 +4336,40 @@
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
         <v>1.79</v>
       </c>
       <c r="W29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
@@ -4387,22 +4387,22 @@
         <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
         <v>80</v>
       </c>
       <c r="AG29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>19</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>40</v>
       </c>
       <c r="AI29" t="n">
         <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -4489,7 +4489,7 @@
         <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
         <v>2.06</v>
@@ -4720,52 +4720,52 @@
         <v>5.1</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J32" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K32" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S32" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T32" t="n">
         <v>1.76</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W32" t="n">
         <v>1.2</v>
@@ -4774,7 +4774,7 @@
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G33" t="n">
         <v>1.67</v>
@@ -4861,7 +4861,7 @@
         <v>5.5</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J33" t="n">
         <v>4.4</v>
@@ -4876,10 +4876,10 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
         <v>2.34</v>
@@ -4888,13 +4888,13 @@
         <v>1.68</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S33" t="n">
         <v>2.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U33" t="n">
         <v>2.18</v>
@@ -4909,10 +4909,10 @@
         <v>30</v>
       </c>
       <c r="Y33" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Z33" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="n">
         <v>150</v>
@@ -4990,7 +4990,7 @@
         <v>3.7</v>
       </c>
       <c r="G34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>2.42</v>
@@ -5002,28 +5002,28 @@
         <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O34" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P34" t="n">
         <v>1.54</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R34" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
         <v>5.9</v>
@@ -5035,13 +5035,13 @@
         <v>1.79</v>
       </c>
       <c r="V34" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W34" t="n">
         <v>1.35</v>
       </c>
       <c r="X34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y34" t="n">
         <v>7.4</v>
@@ -5077,13 +5077,13 @@
         <v>65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AL34" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
         <v>200</v>
@@ -5131,7 +5131,7 @@
         <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J35" t="n">
         <v>4.3</v>
@@ -5281,7 +5281,7 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.44</v>
@@ -5302,7 +5302,7 @@
         <v>1.97</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
         <v>1.33</v>
@@ -5317,7 +5317,7 @@
         <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5326,7 +5326,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
         <v>17</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G37" t="n">
         <v>2.4</v>
@@ -5404,19 +5404,19 @@
         <v>3.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.11</v>
+        <v>3.45</v>
       </c>
       <c r="O37" t="n">
         <v>1.14</v>
@@ -5485,7 +5485,7 @@
         <v>55</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
         <v>28</v>
@@ -5497,7 +5497,7 @@
         <v>11</v>
       </c>
       <c r="AO37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -5707,7 +5707,7 @@
         <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
         <v>1.32</v>
@@ -5827,7 +5827,7 @@
         <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q40" t="n">
         <v>2.52</v>
@@ -5848,13 +5848,13 @@
         <v>1.67</v>
       </c>
       <c r="W40" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z40" t="n">
         <v>980</v>
@@ -6136,7 +6136,7 @@
         <v>7.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>18</v>
@@ -6172,7 +6172,7 @@
         <v>55</v>
       </c>
       <c r="AO42" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6226,7 +6226,7 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
@@ -6295,7 +6295,7 @@
         <v>38</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AL43" t="n">
         <v>95</v>
@@ -6346,7 +6346,7 @@
         <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J44" t="n">
         <v>3.95</v>
@@ -6364,25 +6364,25 @@
         <v>3.85</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
         <v>1.37</v>
       </c>
       <c r="S44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T44" t="n">
         <v>1.92</v>
       </c>
       <c r="U44" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
         <v>1.2</v>
@@ -6439,10 +6439,10 @@
         <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6475,16 +6475,16 @@
         <v>2.88</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H45" t="n">
         <v>2.74</v>
       </c>
       <c r="I45" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
         <v>3.5</v>
@@ -6502,10 +6502,10 @@
         <v>1.35</v>
       </c>
       <c r="P45" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R45" t="n">
         <v>1.34</v>
@@ -6514,10 +6514,10 @@
         <v>3.75</v>
       </c>
       <c r="T45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U45" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V45" t="n">
         <v>1.56</v>
@@ -6577,7 +6577,7 @@
         <v>30</v>
       </c>
       <c r="AO45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -6631,7 +6631,7 @@
         <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.19</v>
@@ -6652,7 +6652,7 @@
         <v>1.6</v>
       </c>
       <c r="U46" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V46" t="n">
         <v>1.24</v>
@@ -6694,7 +6694,7 @@
         <v>16.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ46" t="n">
         <v>18.5</v>
@@ -6745,7 +6745,7 @@
         <v>1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="H47" t="n">
         <v>2.9</v>
@@ -6793,7 +6793,7 @@
         <v>1.13</v>
       </c>
       <c r="W47" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G48" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I48" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J48" t="n">
         <v>3.15</v>
@@ -6895,22 +6895,22 @@
         <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="n">
         <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="O48" t="n">
         <v>1.6</v>
       </c>
       <c r="P48" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R48" t="n">
         <v>1.18</v>
@@ -6919,10 +6919,10 @@
         <v>6.2</v>
       </c>
       <c r="T48" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U48" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V48" t="n">
         <v>1.17</v>
@@ -6949,7 +6949,7 @@
         <v>7.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE48" t="n">
         <v>120</v>
@@ -6964,16 +6964,16 @@
         <v>32</v>
       </c>
       <c r="AI48" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AJ48" t="n">
         <v>24</v>
       </c>
       <c r="AK48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="n">
         <v>580</v>
@@ -6982,7 +6982,7 @@
         <v>26</v>
       </c>
       <c r="AO48" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49">
@@ -7330,7 +7330,7 @@
         <v>1.76</v>
       </c>
       <c r="V51" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="W51" t="n">
         <v>1.3</v>
@@ -7426,7 +7426,7 @@
         <v>2.56</v>
       </c>
       <c r="I52" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J52" t="n">
         <v>2.94</v>
@@ -7465,7 +7465,7 @@
         <v>1.72</v>
       </c>
       <c r="V52" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W52" t="n">
         <v>1.36</v>
@@ -7504,7 +7504,7 @@
         <v>27</v>
       </c>
       <c r="AI52" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AJ52" t="n">
         <v>80</v>
@@ -7513,7 +7513,7 @@
         <v>70</v>
       </c>
       <c r="AL52" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="AM52" t="n">
         <v>240</v>
@@ -7552,28 +7552,28 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>2.82</v>
       </c>
       <c r="I53" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J53" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K53" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L53" t="n">
         <v>1.58</v>
       </c>
       <c r="M53" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N53" t="n">
         <v>2.72</v>
@@ -7582,7 +7582,7 @@
         <v>1.52</v>
       </c>
       <c r="P53" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q53" t="n">
         <v>2.62</v>
@@ -7603,19 +7603,19 @@
         <v>1.51</v>
       </c>
       <c r="W53" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X53" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y53" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z53" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA53" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB53" t="n">
         <v>9</v>
@@ -7657,7 +7657,7 @@
         <v>600</v>
       </c>
       <c r="AO53" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54">
@@ -7696,7 +7696,7 @@
         <v>3.45</v>
       </c>
       <c r="I54" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J54" t="n">
         <v>4.3</v>
@@ -7711,25 +7711,25 @@
         <v>1.02</v>
       </c>
       <c r="N54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O54" t="n">
         <v>1.12</v>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q54" t="n">
         <v>1.38</v>
       </c>
       <c r="R54" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S54" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T54" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U54" t="n">
         <v>3.2</v>
@@ -7741,7 +7741,7 @@
         <v>1.94</v>
       </c>
       <c r="X54" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="Y54" t="n">
         <v>32</v>
@@ -7789,7 +7789,7 @@
         <v>44</v>
       </c>
       <c r="AN54" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO54" t="n">
         <v>16</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G55" t="n">
         <v>1.94</v>
@@ -7834,7 +7834,7 @@
         <v>4.8</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
         <v>3.8</v>
@@ -7855,7 +7855,7 @@
         <v>1.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R55" t="n">
         <v>1.29</v>
@@ -7873,7 +7873,7 @@
         <v>1.21</v>
       </c>
       <c r="W55" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
         <v>2.2</v>
@@ -8107,7 +8107,7 @@
         <v>2.84</v>
       </c>
       <c r="K57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L57" t="n">
         <v>1.68</v>
@@ -8257,7 +8257,7 @@
         <v>1.66</v>
       </c>
       <c r="P58" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q58" t="n">
         <v>3</v>
@@ -8500,7 +8500,7 @@
         <v>1.42</v>
       </c>
       <c r="G60" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H60" t="n">
         <v>10</v>
@@ -8539,10 +8539,10 @@
         <v>3.7</v>
       </c>
       <c r="T60" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U60" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V60" t="n">
         <v>1.1</v>
@@ -8596,10 +8596,10 @@
         <v>60</v>
       </c>
       <c r="AM60" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN60" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO60" t="n">
         <v>380</v>
@@ -8635,7 +8635,7 @@
         <v>2.28</v>
       </c>
       <c r="G61" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>3.3</v>
@@ -8656,34 +8656,34 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O61" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R61" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T61" t="n">
         <v>1.79</v>
       </c>
       <c r="U61" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V61" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W61" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X61" t="n">
         <v>26</v>
@@ -9094,7 +9094,7 @@
         <v>8</v>
       </c>
       <c r="Y64" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z64" t="n">
         <v>16.5</v>
@@ -9124,13 +9124,13 @@
         <v>26</v>
       </c>
       <c r="AI64" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ64" t="n">
         <v>60</v>
       </c>
       <c r="AK64" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AL64" t="n">
         <v>450</v>
@@ -9214,7 +9214,7 @@
         <v>3.7</v>
       </c>
       <c r="T65" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U65" t="n">
         <v>1.7</v>
@@ -9445,7 +9445,7 @@
         <v>1.26</v>
       </c>
       <c r="G67" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H67" t="n">
         <v>16</v>
@@ -9478,7 +9478,7 @@
         <v>1.78</v>
       </c>
       <c r="R67" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S67" t="n">
         <v>3.05</v>
@@ -9493,10 +9493,10 @@
         <v>1.05</v>
       </c>
       <c r="W67" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X67" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y67" t="n">
         <v>44</v>
@@ -9520,7 +9520,7 @@
         <v>380</v>
       </c>
       <c r="AF67" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG67" t="n">
         <v>11.5</v>
@@ -9532,7 +9532,7 @@
         <v>290</v>
       </c>
       <c r="AJ67" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK67" t="n">
         <v>15</v>
@@ -9718,13 +9718,13 @@
         <v>2.18</v>
       </c>
       <c r="H69" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J69" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K69" t="n">
         <v>4</v>
@@ -10006,7 +10006,7 @@
         <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.35</v>
@@ -10018,7 +10018,7 @@
         <v>2.06</v>
       </c>
       <c r="R71" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S71" t="n">
         <v>3.7</v>
@@ -10039,7 +10039,7 @@
         <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z71" t="n">
         <v>1000</v>
@@ -10048,10 +10048,10 @@
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD71" t="n">
         <v>980</v>
@@ -10123,7 +10123,7 @@
         <v>2.22</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I72" t="n">
         <v>4</v>
@@ -10132,7 +10132,7 @@
         <v>3.45</v>
       </c>
       <c r="K72" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L72" t="n">
         <v>1.42</v>
@@ -10168,7 +10168,7 @@
         <v>1.33</v>
       </c>
       <c r="W72" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X72" t="n">
         <v>15</v>
@@ -10393,7 +10393,7 @@
         <v>2.24</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I74" t="n">
         <v>4.2</v>
@@ -10429,7 +10429,7 @@
         <v>3.8</v>
       </c>
       <c r="T74" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U74" t="n">
         <v>2</v>
@@ -10528,7 +10528,7 @@
         <v>4.4</v>
       </c>
       <c r="H75" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I75" t="n">
         <v>2.32</v>
@@ -10567,13 +10567,13 @@
         <v>2.18</v>
       </c>
       <c r="U75" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V75" t="n">
         <v>1.75</v>
       </c>
       <c r="W75" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X75" t="n">
         <v>980</v>
@@ -10660,7 +10660,7 @@
         <v>1.57</v>
       </c>
       <c r="G76" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H76" t="n">
         <v>5.7</v>
@@ -10675,7 +10675,7 @@
         <v>4.9</v>
       </c>
       <c r="L76" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
@@ -10684,19 +10684,19 @@
         <v>4.6</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P76" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R76" t="n">
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T76" t="n">
         <v>1.74</v>
@@ -10708,7 +10708,7 @@
         <v>1.18</v>
       </c>
       <c r="W76" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10828,7 +10828,7 @@
         <v>1.56</v>
       </c>
       <c r="R77" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S77" t="n">
         <v>2.44</v>
@@ -10885,7 +10885,7 @@
         <v>13.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL77" t="n">
         <v>38</v>
@@ -10930,7 +10930,7 @@
         <v>2.26</v>
       </c>
       <c r="G78" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>3.15</v>
@@ -11020,7 +11020,7 @@
         <v>30</v>
       </c>
       <c r="AK78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL78" t="n">
         <v>28</v>
@@ -11068,10 +11068,10 @@
         <v>1.37</v>
       </c>
       <c r="H79" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I79" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J79" t="n">
         <v>6.2</v>
@@ -11098,10 +11098,10 @@
         <v>1.31</v>
       </c>
       <c r="R79" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S79" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="T79" t="n">
         <v>1.56</v>
@@ -11116,7 +11116,7 @@
         <v>3.7</v>
       </c>
       <c r="X79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
@@ -11134,13 +11134,13 @@
         <v>17.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE79" t="n">
         <v>95</v>
       </c>
       <c r="AF79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG79" t="n">
         <v>12</v>
@@ -11164,10 +11164,10 @@
         <v>70</v>
       </c>
       <c r="AN79" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="80">
@@ -11974,7 +11974,7 @@
         <v>290</v>
       </c>
       <c r="AN85" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AO85" t="n">
         <v>110</v>
@@ -12019,7 +12019,7 @@
         <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
         <v>3.05</v>
@@ -12049,7 +12049,7 @@
         <v>6.2</v>
       </c>
       <c r="T86" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U86" t="n">
         <v>1.75</v>
@@ -12142,16 +12142,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G87" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H87" t="n">
         <v>4.6</v>
       </c>
       <c r="I87" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J87" t="n">
         <v>4.1</v>
@@ -12181,7 +12181,7 @@
         <v>1.56</v>
       </c>
       <c r="S87" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T87" t="n">
         <v>1.67</v>
@@ -12193,7 +12193,7 @@
         <v>1.27</v>
       </c>
       <c r="W87" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X87" t="n">
         <v>22</v>
@@ -12205,7 +12205,7 @@
         <v>38</v>
       </c>
       <c r="AA87" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB87" t="n">
         <v>12</v>
@@ -12217,7 +12217,7 @@
         <v>17.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF87" t="n">
         <v>12.5</v>
@@ -12229,7 +12229,7 @@
         <v>16.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ87" t="n">
         <v>20</v>
@@ -12319,7 +12319,7 @@
         <v>2.16</v>
       </c>
       <c r="T88" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U88" t="n">
         <v>3.05</v>
@@ -12415,10 +12415,10 @@
         <v>2.8</v>
       </c>
       <c r="G89" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H89" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I89" t="n">
         <v>2.62</v>
@@ -12436,7 +12436,7 @@
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O89" t="n">
         <v>1.31</v>
@@ -12454,7 +12454,7 @@
         <v>3.35</v>
       </c>
       <c r="T89" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="U89" t="n">
         <v>2.16</v>
